--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>間取り/面積/総戸数</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bcid</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -471,32 +476,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区古川町</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>賃料：4.2万円管理・共益費：-礼金/敷金：-/4.2万円</t>
+          <t>賃料：4.35万円管理・共益費：7500円礼金/敷金：-/4.35万円</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>築50年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>専有面積：23.4m2間取り：2K</t>
+          <t>専有面積：16.64m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -506,32 +516,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区古川町</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>賃料：4.2万円管理・共益費：-礼金/敷金：-/4.2万円</t>
+          <t>賃料：4.35万円管理・共益費：7500円礼金/敷金：-/4.35万円</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>築50年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>専有面積：23.4m2間取り：2K</t>
+          <t>専有面積：16.64m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -546,27 +561,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬２</t>
+          <t>神奈川県川崎市幸区古市場１</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>賃料：4.4万円管理・共益費：6000円礼金/敷金：-/-</t>
+          <t>賃料：4.7万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築34年</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>専有面積：12.89m2間取り：ワンルーム</t>
+          <t>専有面積：18m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -576,32 +596,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場２</t>
+          <t>神奈川県川崎市幸区中幸町２</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>賃料：4.5万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：5万円管理・共益費：-礼金/敷金：5万円/5万円</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>築12年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>専有面積：9.46m2間取り：ワンルーム</t>
+          <t>専有面積：13.35m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -611,32 +636,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区紺屋町</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>賃料：4.6万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：5.2万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>築13年</t>
+          <t>築17年</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>専有面積：12.79m2間取り：ワンルーム</t>
+          <t>専有面積：12.67m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -646,32 +676,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場１</t>
+          <t>神奈川県川崎市幸区塚越１</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>賃料：4.8万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.4万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>専有面積：12.37m2間取り：ワンルーム</t>
+          <t>専有面積：11.11m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -681,32 +716,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩22分</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古川町</t>
+          <t>神奈川県川崎市幸区戸手本町１</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>賃料：5万円管理・共益費：2000円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：1000円礼金/敷金：-/5.5万円</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>築31年</t>
+          <t>築33年</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>専有面積：17m2間取り：ワンルーム</t>
+          <t>専有面積：20.2m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -716,32 +756,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩23分</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古川町</t>
+          <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>賃料：5万円管理・共益費：2000円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>京急本線/京急川崎</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>築31年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>専有面積：17m2間取り：1K</t>
+          <t>専有面積：17.6m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -751,32 +796,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>―徒歩11分</t>
+          <t>―徒歩23分</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区下平間</t>
+          <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>賃料：5万円管理・共益費：4500円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>京急本線/京急川崎</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>築4年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>専有面積：11.1m2間取り：ワンルーム</t>
+          <t>専有面積：17.6m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -786,32 +836,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩23分</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越４</t>
+          <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>賃料：5.15万円管理・共益費：3500円礼金/敷金：5.15万円/-</t>
+          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>京急本線/京急川崎</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>専有面積：11.51m2間取り：ワンルーム</t>
+          <t>専有面積：19.9m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -821,32 +876,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>―徒歩6分</t>
+          <t>―徒歩23分</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>賃料：5.3万円管理・共益費：-礼金/敷金：5.3万円(5.3万円)/5.3万円</t>
+          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>京急本線/京急川崎</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>専有面積：16.35m2間取り：1K</t>
+          <t>専有面積：19.9m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -856,22 +916,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>―徒歩6分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区北加瀬３</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>賃料：5.3万円管理・共益費：-礼金/敷金：5.3万円(5.3万円)/5.3万円</t>
+          <t>賃料：5.5万円管理・共益費：-礼金/敷金：5.5万円(5.5万円)/5.5万円</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>東急東横線/元住吉</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -881,7 +941,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>専有面積：16.35m2間取り：1K</t>
+          <t>専有面積：17m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -891,17 +956,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>―徒歩19分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区矢上</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>賃料：5.3万円管理・共益費：10500円礼金/敷金：5.3万円/-</t>
+          <t>賃料：5.5万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -911,12 +976,17 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>専有面積：16.68m2間取り：ワンルーム</t>
+          <t>専有面積：17.5m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -926,17 +996,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬１</t>
+          <t>神奈川県川崎市幸区南加瀬２</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>賃料：5.3万円管理・共益費：10500円礼金/敷金：5.3万円/-</t>
+          <t>賃料：5.75万円管理・共益費：4500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -946,12 +1016,17 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>築36年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>専有面積：16.5m2間取り：ワンルーム</t>
+          <t>専有面積：12.5m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -961,32 +1036,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬２</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>賃料：5.35万円管理・共益費：4500円礼金/敷金：-/-</t>
+          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>専有面積：11.94m2間取り：ワンルーム</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -996,32 +1076,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬２</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>賃料：5.35万円管理・共益費：4500円礼金/敷金：-/-</t>
+          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>専有面積：11.94m2間取り：ワンルーム</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1031,32 +1116,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬２</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>賃料：5.35万円管理・共益費：4500円礼金/敷金：-/-</t>
+          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>専有面積：11.94m2間取り：ワンルーム</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1066,32 +1156,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩19分</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬２</t>
+          <t>神奈川県川崎市幸区小向仲野町</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>賃料：5.35万円管理・共益費：4500円礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>東急多摩川線/矢口渡</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築19年</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>専有面積：11.94m2間取り：ワンルーム</t>
+          <t>専有面積：24.77m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1101,32 +1196,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町２</t>
+          <t>神奈川県川崎市幸区塚越１</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>賃料：5.37万円管理・共益費：5000円礼金/敷金：-/5.37万円</t>
+          <t>賃料：6万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>専有面積：15.5m2間取り：ワンルーム</t>
+          <t>専有面積：11.11m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1136,32 +1236,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬３</t>
+          <t>神奈川県川崎市幸区東小倉</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：-礼金/敷金：5.5万円(5.5万円)/5.5万円</t>
+          <t>賃料：6万円管理・共益費：3000円礼金/敷金：-(6万円)/6万円</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>東急東横線/元住吉</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>築30年</t>
+          <t>築4年</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>専有面積：17m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1276,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区矢上</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：1500円礼金/敷金：6万円/6万円</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1191,12 +1296,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築26年</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>専有面積：11.49m2間取り：ワンルーム</t>
+          <t>専有面積：23m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1206,32 +1316,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>バス19分停歩5分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向仲野町</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：5500円礼金/敷金：5.5万円/-</t>
+          <t>賃料：6.1万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>築18年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1241,32 +1356,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小倉１</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>賃料：5.6万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>築2年</t>
+          <t>築20年</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>専有面積：12.94m2間取り：ワンルーム</t>
+          <t>専有面積：18.55m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1276,32 +1396,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場２</t>
+          <t>神奈川県川崎市幸区紺屋町</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>賃料：5.6万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：6.2万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>専有面積：13.47m2間取り：ワンルーム</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1311,17 +1436,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬２</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>賃料：5.65万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1331,12 +1456,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築23年</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>専有面積：13m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1351,27 +1481,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場２</t>
+          <t>神奈川県川崎市幸区神明町２</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>賃料：5.7万円管理・共益費：5500円礼金/敷金：5.7万円/-</t>
+          <t>賃料：6.2万円管理・共益費：-礼金/敷金：-/6.2万円</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ南武線/川崎</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>築19年</t>
+          <t>築48年</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：29.75m2間取り：1LDK</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1516,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>バス9分停歩5分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>賃料：5.7万円管理・共益費：5500円礼金/敷金：5.7万円/-</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>築28年</t>
+          <t>築23年</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>専有面積：20.12m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1556,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩23分</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬２</t>
+          <t>神奈川県川崎市幸区戸手３</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>賃料：5.75万円管理・共益費：4500円礼金/敷金：-/-</t>
+          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築7年</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>専有面積：12.5m2間取り：ワンルーム</t>
+          <t>専有面積：14.53m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1451,17 +1596,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬２</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>賃料：5.75万円管理・共益費：4500円礼金/敷金：-/-</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1471,12 +1616,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築23年</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>専有面積：12.5m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1486,17 +1636,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬２</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>賃料：5.75万円管理・共益費：4500円礼金/敷金：-/-</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1506,12 +1656,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築21年</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>専有面積：12.5m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1676,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬２</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>賃料：5.75万円管理・共益費：4500円礼金/敷金：-/-</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1541,12 +1696,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築21年</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>専有面積：12.5m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1726,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>賃料：5.8万円管理・共益費：5500円礼金/敷金：5.8万円/-</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1582,6 +1742,11 @@
       <c r="G33" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1591,32 +1756,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>―徒歩17分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区下平間</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>賃料：5.8万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>築13年</t>
+          <t>築21年</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1626,32 +1796,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>バス9分停歩5分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>賃料：5.8万円管理・共益費：5500円礼金/敷金：2.9万円/-</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>築25年</t>
+          <t>築21年</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>専有面積：19.78m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1661,32 +1836,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区下平間</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>賃料：5.8万円管理・共益費：2000円礼金/敷金：-/-</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>築34年</t>
+          <t>築21年</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>専有面積：19m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1696,32 +1876,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町２</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>賃料：5.9万円管理・共益費：6000円礼金/敷金：-/5.9万円</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築21年</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>専有面積：21.15m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1731,22 +1916,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>バス9分停歩4分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>賃料：5.9万円管理・共益費：7500円礼金/敷金：2.95万円/-</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1756,7 +1941,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>専有面積：20.28m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1956,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1776,7 +1966,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>賃料：5.9万円管理・共益費：5500円礼金/敷金：5.9万円/-</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1786,12 +1976,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>築21年</t>
+          <t>築23年</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1801,32 +1996,37 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越１</t>
+          <t>神奈川県川崎市幸区南幸町２</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：6.5万円管理・共益費：6000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築18年</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>専有面積：11.11m2間取り：ワンルーム</t>
+          <t>専有面積：19.68m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1836,32 +2036,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>バス18分停歩4分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬５</t>
+          <t>神奈川県川崎市幸区古市場２</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：5500円礼金/敷金：6万円/-</t>
+          <t>賃料：6.6万円管理・共益費：3000円礼金/敷金：-(3.3万円)/6.6万円</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>築12年</t>
+          <t>築17年</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>専有面積：19.32m2間取り：1K</t>
+          <t>専有面積：19.59m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1871,32 +2076,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>バス9分停歩4分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：7500円礼金/敷金：3万円/-</t>
+          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>築21年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>専有面積：20.28m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1906,32 +2116,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>バス9分停歩5分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：5500円礼金/敷金：6万円/-</t>
+          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>築19年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1941,32 +2156,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>バス8分停歩5分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：5500円礼金/敷金：6万円/-</t>
+          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>築19年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1976,32 +2196,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小倉５</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：2000円礼金/敷金：6万円/6万円</t>
+          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>築14年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>専有面積：24.11m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2011,32 +2236,37 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>バス8分停歩5分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区神明町２</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：5500円礼金/敷金：6万円/-</t>
+          <t>賃料：6.9万円管理・共益費：1000円礼金/敷金：-/6.9万円</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>築19年</t>
+          <t>築50年</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：26.44m2間取り：1DK</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2046,32 +2276,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小倉５</t>
+          <t>神奈川県川崎市幸区中幸町１</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：2000円礼金/敷金：6万円/6万円</t>
+          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>築14年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>専有面積：24.11m2間取り：1K</t>
+          <t>専有面積：18.29m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2081,32 +2316,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>バス9分停歩5分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区中幸町１</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：5500円礼金/敷金：6万円/-</t>
+          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>築19年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：18.29m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2116,32 +2356,37 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>バス9分停歩5分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区中幸町１</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：5500円礼金/敷金：6万円/-</t>
+          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>築19年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：18.29m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2151,32 +2396,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>バス9分停歩5分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：5500円礼金/敷金：6万円/-</t>
+          <t>賃料：7万円管理・共益費：2000円礼金/敷金：-/7万円</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>築19年</t>
+          <t>築37年</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：32.46m2間取り：2K</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2186,32 +2436,37 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>バス9分停歩5分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区神明町２</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：5500円礼金/敷金：6万円/-</t>
+          <t>賃料：7万円管理・共益費：1000円礼金/敷金：-/7万円</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>築19年</t>
+          <t>築50年</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：26.44m2間取り：1DK</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2476,37 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>バス9分停歩5分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：5500円礼金/敷金：6万円/-</t>
+          <t>賃料：7万円管理・共益費：2000円礼金/敷金：-/7万円</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>築19年</t>
+          <t>築37年</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：32.46m2間取り：2K</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2256,32 +2516,37 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>バス9分停歩5分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：5500円礼金/敷金：6万円/-</t>
+          <t>賃料：7万円管理・共益費：15000円礼金/敷金：7万円/-</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>築19年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：21.65m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2291,32 +2556,37 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>バス9分停歩5分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区東古市場</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：5500円礼金/敷金：6万円/-</t>
+          <t>賃料：7万円管理・共益費：3000円礼金/敷金：-/14万円</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>築19年</t>
+          <t>築33年</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：40m2間取り：2DK</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2596,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>バス8分停歩1分</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区幸町２</t>
+          <t>神奈川県川崎市幸区遠藤町</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：-礼金/敷金：6万円/6万円</t>
+          <t>賃料：7万円管理・共益費：3000円礼金/敷金：7万円/7万円</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2346,12 +2616,17 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>築33年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>専有面積：18m2間取り：1K</t>
+          <t>専有面積：19.8m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2361,32 +2636,37 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区下平間</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>賃料：6.1万円管理・共益費：2000円礼金/敷金：-/-</t>
+          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>築19年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>専有面積：21.3m2間取り：1K</t>
+          <t>専有面積：25.42m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2396,32 +2676,37 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>バス9分停歩6分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>賃料：6.1万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>築22年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：25.61m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2431,32 +2716,37 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>バス9分停歩6分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>賃料：6.1万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>築22年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：25.42m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2466,17 +2756,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区幸町３</t>
+          <t>神奈川県川崎市幸区大宮町</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>賃料：6.15万円管理・共益費：4500円礼金/敷金：-/-</t>
+          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/-</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2486,12 +2776,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>築4年</t>
+          <t>築20年</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>専有面積：12.49m2間取り：ワンルーム</t>
+          <t>専有面積：23.56m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2501,32 +2796,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区柳町</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：7.1万円管理・共益費：5000円礼金/敷金：7.1万円/7.1万円</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築20年</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>専有面積：15.49m2間取り：ワンルーム</t>
+          <t>専有面積：20.23m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2541,27 +2841,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区古川町</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：7.1万円管理・共益費：4000円礼金/敷金：7.1万円/-</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>専有面積：15.49m2間取り：ワンルーム</t>
+          <t>専有面積：22.35m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2571,32 +2876,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区下平間</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：7.1万円管理・共益費：5000円礼金/敷金：7.1万円/7.1万円</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築14年</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>専有面積：15.49m2間取り：ワンルーム</t>
+          <t>専有面積：22.36m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2606,32 +2916,37 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区下平間</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：7.1万円管理・共益費：5000円礼金/敷金：7.1万円/7.1万円</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>築14年</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：22.36m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2641,32 +2956,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>―徒歩22分</t>
+          <t>―徒歩25分</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町３</t>
+          <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：7.1万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>京急本線/京急川崎</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：21.02m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2681,27 +3001,32 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区古川町</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：7.1万円管理・共益費：4000円礼金/敷金：7.1万円/-</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>専有面積：15.49m2間取り：ワンルーム</t>
+          <t>専有面積：22.35m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2711,22 +3036,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区鹿島田３</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>賃料：6.3万円管理・共益費：2000円礼金/敷金：6.3万円/-</t>
+          <t>賃料：7.2万円管理・共益費：15000円礼金/敷金：7.2万円/-</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/平間</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2736,7 +3061,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>専有面積：17.46m2間取り：1K</t>
+          <t>専有面積：21.3m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2746,32 +3076,37 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩22分</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区下平間</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>賃料：6.3万円管理・共益費：2000円礼金/敷金：-/-</t>
+          <t>賃料：7.2万円管理・共益費：5000円礼金/敷金：6万円/-</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>築19年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>専有面積：21.3m2間取り：1K</t>
+          <t>専有面積：22.52m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2781,17 +3116,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>バス8分停歩4分</t>
+          <t>バス10分停歩2分</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町２</t>
+          <t>神奈川県川崎市幸区戸手２</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>賃料：6.3万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：7.2万円管理・共益費：3000円礼金/敷金：7.2万円/7.2万円</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2801,12 +3136,17 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築36年</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>専有面積：18.81m2間取り：1K</t>
+          <t>専有面積：38m2間取り：2DK</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2816,32 +3156,37 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区小向西町３</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>賃料：6.3万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：7.2万円管理・共益費：6000円礼金/敷金：7.2万円/7.2万円</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築24年</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>専有面積：15.49m2間取り：ワンルーム</t>
+          <t>専有面積：25.92m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2851,32 +3196,37 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区柳町</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>賃料：6.3万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築23年</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>専有面積：15.49m2間取り：ワンルーム</t>
+          <t>専有面積：24.02m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2886,32 +3236,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>賃料：6.3万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築11年</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>専有面積：15.49m2間取り：ワンルーム</t>
+          <t>専有面積：29.81m2間取り：1DK</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2921,32 +3276,37 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>バス9分停歩6分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>賃料：6.3万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>築22年</t>
+          <t>築11年</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：29.81m2間取り：1DK</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2956,32 +3316,37 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>―徒歩28分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町２</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>賃料：6.3万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築11年</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>専有面積：18.81m2間取り：1K</t>
+          <t>専有面積：29.81m2間取り：1DK</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2991,32 +3356,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>賃料：6.3万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築11年</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>専有面積：15.49m2間取り：ワンルーム</t>
+          <t>専有面積：29.81m2間取り：1DK</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3026,32 +3396,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>―徒歩3分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区下平間</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>賃料：6.3万円管理・共益費：2000円礼金/敷金：-/-</t>
+          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築11年</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>専有面積：18m2間取り：1K</t>
+          <t>専有面積：29.81m2間取り：1DK</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3061,32 +3436,37 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>バス8分停歩4分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町２</t>
+          <t>神奈川県川崎市幸区古川町</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>賃料：6.3万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：7.4万円管理・共益費：4000円礼金/敷金：7.4万円/-</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>専有面積：18.81m2間取り：1K</t>
+          <t>専有面積：26.08m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3096,32 +3476,37 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>―徒歩17分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>賃料：6.3万円管理・共益費：-礼金/敷金：9.45万円/6.3万円</t>
+          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>築11年</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>専有面積：20.08m2間取り：ワンルーム</t>
+          <t>専有面積：29.81m2間取り：1DK</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3521,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>賃料：6.3万円管理・共益費：5500円礼金/敷金：6.3万円/-</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3151,12 +3536,17 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>築14年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3166,32 +3556,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩17分</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>賃料：6.4万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>専有面積：17.75m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3201,32 +3596,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>バス8分停歩4分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町２</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>賃料：6.4万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>専有面積：18.81m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3236,32 +3636,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>バス8分停歩4分</t>
+          <t>―徒歩8分</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町２</t>
+          <t>神奈川県川崎市幸区北加瀬１</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>賃料：6.4万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：7.5万円管理・共益費：6000円礼金/敷金：7.5万円/7.5万円</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築7年</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>専有面積：18.81m2間取り：1K</t>
+          <t>専有面積：27.5m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3271,32 +3676,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩17分</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬３</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>賃料：6.4万円管理・共益費：12000円礼金/敷金：-/-</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>東急東横線/元住吉</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>専有面積：21.55m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3306,22 +3716,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>―徒歩19分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬３</t>
+          <t>神奈川県川崎市幸区南幸町１</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>賃料：6.4万円管理・共益費：12000円礼金/敷金：-/-</t>
+          <t>賃料：7.5万円管理・共益費：8000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3331,7 +3741,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>専有面積：21.55m2間取り：1K</t>
+          <t>専有面積：20.59m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3341,32 +3756,37 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>バス9分停歩6分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>賃料：6.4万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>築22年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3376,32 +3796,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>―徒歩28分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町２</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>賃料：6.4万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>専有面積：18.81m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3411,32 +3836,37 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>―徒歩21分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町２</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>賃料：6.4万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>専有面積：18.81m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3446,22 +3876,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手４</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：2000円礼金/敷金：6.5万円/6.5万円</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3471,7 +3901,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>専有面積：24.33m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3481,17 +3916,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬３</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：6.5万円(6.5万円)/6.5万円</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3501,12 +3936,17 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>築36年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>専有面積：28m2間取り：2K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3516,22 +3956,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手４</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：2000円礼金/敷金：6.5万円/6.5万円</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3541,7 +3981,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>専有面積：24.33m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3551,22 +3996,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手４</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：2000円礼金/敷金：6.5万円/6.5万円</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3576,7 +4021,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>専有面積：24.33m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3586,22 +4036,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手４</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：2000円礼金/敷金：6.5万円/6.5万円</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3611,7 +4061,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>専有面積：24.33m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3621,32 +4076,37 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町２</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：6000円礼金/敷金：-/-</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>築17年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>専有面積：19.68m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3656,32 +4116,37 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区幸町３</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：3000円礼金/敷金：6.5万円/6.5万円</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>専有面積：28m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3691,22 +4156,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手４</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：2000円礼金/敷金：6.5万円/6.5万円</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3716,7 +4181,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>専有面積：24.33m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3726,22 +4196,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手４</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：2000円礼金/敷金：6.5万円/6.5万円</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3751,7 +4221,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>専有面積：24.33m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3761,32 +4236,37 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手４</t>
+          <t>神奈川県川崎市幸区南幸町１</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：2000円礼金/敷金：6.5万円/6.5万円</t>
+          <t>賃料：7.5万円管理・共益費：8000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築9年</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>専有面積：24.33m2間取り：1K</t>
+          <t>専有面積：20.59m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3796,22 +4276,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手４</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：2000円礼金/敷金：6.5万円/6.5万円</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3821,7 +4301,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>専有面積：24.33m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3831,32 +4316,37 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区幸町３</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>賃料：6.55万円管理・共益費：4000円礼金/敷金：-/-</t>
+          <t>賃料：7.6万円管理・共益費：5000円礼金/敷金：7.6万円/-</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>築4年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>専有面積：17m2間取り：1K</t>
+          <t>専有面積：25.39m2間取り：ワンルーム</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3866,32 +4356,37 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩8分</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区幸町３</t>
+          <t>神奈川県川崎市幸区戸手本町２</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>賃料：6.55万円管理・共益費：4000円礼金/敷金：-/-</t>
+          <t>賃料：7.8万円管理・共益費：4000円礼金/敷金：7.8万円/-</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>築4年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>専有面積：17m2間取り：1K</t>
+          <t>専有面積：26.08m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3901,32 +4396,37 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩8分</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区戸手本町２</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>賃料：6.6万円管理・共益費：5500円礼金/敷金：6.6万円/-</t>
+          <t>賃料：7.8万円管理・共益費：4000円礼金/敷金：7.8万円/-</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>築18年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：26.08m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3936,32 +4436,37 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩8分</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区戸手本町２</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>賃料：6.6万円管理・共益費：5500円礼金/敷金：6.6万円/-</t>
+          <t>賃料：7.8万円管理・共益費：4000円礼金/敷金：7.8万円/-</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>築18年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：26.08m2間取り：1K</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>100312495331</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>bcid</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>バス/徒歩</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>住所</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>価格（月額のローン支払い）</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>沿線・駅</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>築年数・入居時期</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>間取り/面積/総戸数</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>bcid</t>
         </is>
       </c>
     </row>
@@ -474,39 +474,37 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>100312473732</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>―徒歩10分</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区古川町</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>賃料：4.35万円管理・共益費：7500円礼金/敷金：-/4.35万円</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>築32年</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>専有面積：16.64m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -514,39 +512,37 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>100312470977</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>―徒歩10分</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区古川町</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>賃料：4.35万円管理・共益費：7500円礼金/敷金：-/4.35万円</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>築32年</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>専有面積：16.64m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -554,39 +550,37 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>100312412584</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>―徒歩15分</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区古市場１</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>賃料：4.7万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>築34年</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>専有面積：18m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -594,39 +588,37 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>100312469611</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>―徒歩10分</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区中幸町２</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>賃料：5万円管理・共益費：-礼金/敷金：5万円/5万円</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>築32年</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>専有面積：13.35m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -634,39 +626,37 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>100312455532</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区紺屋町</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>賃料：5.2万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>築17年</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>専有面積：12.67m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -674,39 +664,37 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>100312473229</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>―徒歩14分</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区塚越１</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>賃料：5.4万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>築5年</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>専有面積：11.11m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -714,39 +702,37 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>100312510065</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>―徒歩22分</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区戸手本町１</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>賃料：5.5万円管理・共益費：1000円礼金/敷金：-/5.5万円</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>築33年</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>専有面積：20.2m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -754,39 +740,37 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>100312495358</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>―徒歩23分</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>京急本線/京急川崎</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>築35年</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>専有面積：17.6m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -794,39 +778,37 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>100312455521</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>―徒歩23分</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>京急本線/京急川崎</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>築35年</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>専有面積：17.6m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -834,39 +816,37 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>100312452854</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>―徒歩23分</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>京急本線/京急川崎</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>築35年</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>専有面積：19.9m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -874,39 +854,37 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>100312439098</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>―徒歩23分</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>京急本線/京急川崎</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>築35年</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>専有面積：19.9m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -914,39 +892,37 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>100312438803</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>―徒歩15分</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区北加瀬３</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>賃料：5.5万円管理・共益費：-礼金/敷金：5.5万円(5.5万円)/5.5万円</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>東急東横線/元住吉</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>築32年</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>専有面積：17m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -954,39 +930,37 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>100312419444</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>―徒歩15分</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区矢上</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>賃料：5.5万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>築32年</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>専有面積：17.5m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -994,39 +968,37 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>100301143101</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>―徒歩13分</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬２</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>賃料：5.75万円管理・共益費：4500円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>築3年</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>専有面積：12.5m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1034,39 +1006,37 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>100312490020</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>―徒歩14分</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>新築</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>専有面積：14m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1044,37 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>100312455470</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>―徒歩14分</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>新築</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>専有面積：14m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1114,39 +1082,37 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>100312425957</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>―徒歩14分</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>新築</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>専有面積：14m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1154,39 +1120,37 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>100312527356</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>―徒歩19分</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区小向仲野町</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>賃料：6万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>東急多摩川線/矢口渡</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>築19年</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>専有面積：24.77m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1194,39 +1158,37 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>100312473227</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>―徒歩14分</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区塚越１</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>賃料：6万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>築5年</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>専有面積：11.11m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1234,39 +1196,37 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>100312452368</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>―徒歩10分</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区東小倉</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>賃料：6万円管理・共益費：3000円礼金/敷金：-(6万円)/6万円</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>築4年</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>専有面積：19.5m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1274,39 +1234,37 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>100312439197</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>―徒歩14分</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>賃料：6万円管理・共益費：1500円礼金/敷金：6万円/6万円</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>築26年</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>専有面積：23m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1314,39 +1272,37 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>100312425946</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>―徒歩14分</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>賃料：6.1万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>新築</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>専有面積：14m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1354,39 +1310,37 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>100312536528</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>―徒歩5分</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>築20年</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>専有面積：18.55m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1394,39 +1348,37 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>100312530097</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>―徒歩15分</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区紺屋町</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>賃料：6.2万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>築8年</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>専有面積：14m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1434,39 +1386,37 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>100312522742</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>―徒歩16分</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>築23年</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1474,39 +1424,37 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>100312489985</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>―徒歩16分</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区神明町２</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>賃料：6.2万円管理・共益費：-礼金/敷金：-/6.2万円</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>ＪＲ南武線/川崎</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>築48年</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>専有面積：29.75m2間取り：1LDK</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1514,39 +1462,37 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>100312488787</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>―徒歩16分</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>築23年</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1554,39 +1500,37 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>100312439145</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>―徒歩23分</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区戸手３</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>築7年</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>専有面積：14.53m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1594,39 +1538,37 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>100312424497</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>―徒歩16分</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>築23年</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1634,39 +1576,37 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>100312424496</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>―徒歩18分</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>築21年</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1674,39 +1614,37 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>100312424431</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>―徒歩18分</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>築21年</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1714,39 +1652,37 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>100312416259</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>―徒歩18分</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>築21年</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1754,39 +1690,37 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>100312409517</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>―徒歩18分</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>築21年</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1794,39 +1728,37 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>100312408783</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>―徒歩18分</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>築21年</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1834,39 +1766,37 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>100312407232</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>―徒歩18分</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>築21年</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1874,39 +1804,37 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>100276842061</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>―徒歩18分</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>築21年</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1914,39 +1842,37 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>100220872649</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>―徒歩18分</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>築21年</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1954,39 +1880,37 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>100182796553</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>―徒歩16分</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>築23年</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -1994,39 +1918,37 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>100312361884</v>
+      </c>
+      <c r="C40" t="inlineStr">
         <is>
           <t>―徒歩5分</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南幸町２</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>賃料：6.5万円管理・共益費：6000円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>築18年</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>専有面積：19.68m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2034,39 +1956,37 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>100312452376</v>
+      </c>
+      <c r="C41" t="inlineStr">
         <is>
           <t>―徒歩13分</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区古市場２</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>賃料：6.6万円管理・共益費：3000円礼金/敷金：-(3.3万円)/6.6万円</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>築17年</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>専有面積：19.59m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2074,39 +1994,37 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>100312522768</v>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2114,39 +2032,37 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>100312488775</v>
+      </c>
+      <c r="C43" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2154,39 +2070,37 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>100312424495</v>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2194,39 +2108,37 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>100312420745</v>
+      </c>
+      <c r="C45" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>専有面積：19.87m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2234,39 +2146,37 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>100312490012</v>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>―徒歩16分</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区神明町２</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>賃料：6.9万円管理・共益費：1000円礼金/敷金：-/6.9万円</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>築50年</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>専有面積：26.44m2間取り：1DK</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2274,39 +2184,37 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>100312519322</v>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>―徒歩9分</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区中幸町１</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>築3年</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>専有面積：18.29m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2314,39 +2222,37 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>100312510734</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>―徒歩9分</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区中幸町１</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>築3年</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>専有面積：18.29m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2354,39 +2260,37 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>100312506289</v>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>―徒歩9分</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区中幸町１</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>築3年</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>専有面積：18.29m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2394,39 +2298,37 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>100312495340</v>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>―徒歩10分</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>賃料：7万円管理・共益費：2000円礼金/敷金：-/7万円</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>築37年</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>専有面積：32.46m2間取り：2K</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2434,39 +2336,37 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>100312490017</v>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>―徒歩16分</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区神明町２</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>賃料：7万円管理・共益費：1000円礼金/敷金：-/7万円</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>築50年</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>専有面積：26.44m2間取り：1DK</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2474,39 +2374,37 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>100312489950</v>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>―徒歩10分</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>賃料：7万円管理・共益費：2000円礼金/敷金：-/7万円</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>築37年</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>専有面積：32.46m2間取り：2K</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2514,39 +2412,37 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>100312488691</v>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>―徒歩4分</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>賃料：7万円管理・共益費：15000円礼金/敷金：7万円/-</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>築8年</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>専有面積：21.65m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2554,39 +2450,37 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>100312487169</v>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区東古市場</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>賃料：7万円管理・共益費：3000円礼金/敷金：-/14万円</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>築33年</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>専有面積：40m2間取り：2DK</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2594,39 +2488,37 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>100312456028</v>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>バス8分停歩1分</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区遠藤町</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>賃料：7万円管理・共益費：3000円礼金/敷金：7万円/7万円</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>築3年</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>専有面積：19.8m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2634,39 +2526,37 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>100312456027</v>
+      </c>
+      <c r="C56" t="inlineStr">
         <is>
           <t>―徒歩4分</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>築16年</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>専有面積：25.42m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2674,39 +2564,37 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>100312442416</v>
+      </c>
+      <c r="C57" t="inlineStr">
         <is>
           <t>―徒歩4分</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>築16年</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>専有面積：25.61m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2714,39 +2602,37 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>100312442415</v>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>―徒歩4分</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>築16年</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>専有面積：25.42m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2754,39 +2640,37 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>100312438358</v>
+      </c>
+      <c r="C59" t="inlineStr">
         <is>
           <t>―徒歩5分</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区大宮町</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/-</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>築20年</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>専有面積：23.56m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2794,39 +2678,37 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>100312516654</v>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>―徒歩9分</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区柳町</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>賃料：7.1万円管理・共益費：5000円礼金/敷金：7.1万円/7.1万円</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>築20年</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>専有面積：20.23m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2834,39 +2716,37 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>100312506336</v>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>―徒歩15分</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区古川町</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>賃料：7.1万円管理・共益費：4000円礼金/敷金：7.1万円/-</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>築5年</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>専有面積：22.35m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2874,39 +2754,37 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>100312497269</v>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>―徒歩9分</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区下平間</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>賃料：7.1万円管理・共益費：5000円礼金/敷金：7.1万円/7.1万円</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>築14年</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>専有面積：22.36m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2914,39 +2792,37 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>100312489983</v>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>―徒歩9分</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区下平間</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>賃料：7.1万円管理・共益費：5000円礼金/敷金：7.1万円/7.1万円</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>築14年</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>専有面積：22.36m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2954,39 +2830,37 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>100312461560</v>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>―徒歩25分</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>賃料：7.1万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>京急本線/京急川崎</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>築6年</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>専有面積：21.02m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -2994,39 +2868,37 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>100312452378</v>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>―徒歩15分</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区古川町</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>賃料：7.1万円管理・共益費：4000円礼金/敷金：7.1万円/-</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>築5年</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>専有面積：22.35m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3034,39 +2906,37 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>100312505135</v>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>―徒歩13分</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>賃料：7.2万円管理・共益費：15000円礼金/敷金：7.2万円/-</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>築8年</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>専有面積：21.3m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3074,39 +2944,37 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>100312461225</v>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>―徒歩22分</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>賃料：7.2万円管理・共益費：5000円礼金/敷金：6万円/-</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>築6年</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>専有面積：22.52m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3114,39 +2982,37 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>100312455412</v>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>バス10分停歩2分</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区戸手２</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>賃料：7.2万円管理・共益費：3000円礼金/敷金：7.2万円/7.2万円</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>築36年</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>専有面積：38m2間取り：2DK</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3154,39 +3020,37 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>100312442417</v>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>―徒歩14分</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区小向西町３</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>賃料：7.2万円管理・共益費：6000円礼金/敷金：7.2万円/7.2万円</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>築24年</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>専有面積：25.92m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3194,39 +3058,37 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>100312516655</v>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>―徒歩7分</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区柳町</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>築23年</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>専有面積：24.02m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3234,39 +3096,37 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>100312477748</v>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>―徒歩12分</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>築11年</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>専有面積：29.81m2間取り：1DK</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3274,39 +3134,37 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>100312473852</v>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>―徒歩12分</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>築11年</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>専有面積：29.81m2間取り：1DK</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3314,39 +3172,37 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>100312473816</v>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>―徒歩12分</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>築11年</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>専有面積：29.81m2間取り：1DK</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3354,39 +3210,37 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>100312473733</v>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>―徒歩12分</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>築11年</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>専有面積：29.81m2間取り：1DK</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3394,39 +3248,37 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>100312456032</v>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>―徒歩12分</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>築11年</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>専有面積：29.81m2間取り：1DK</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3434,39 +3286,37 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>100312442421</v>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>―徒歩12分</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区古川町</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>賃料：7.4万円管理・共益費：4000円礼金/敷金：7.4万円/-</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>築5年</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>専有面積：26.08m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3474,39 +3324,37 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>100312442420</v>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>―徒歩12分</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>築11年</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>専有面積：29.81m2間取り：1DK</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3514,39 +3362,37 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>100312534213</v>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>専有面積：25.11m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3554,39 +3400,37 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>100312522710</v>
+      </c>
+      <c r="C79" t="inlineStr">
         <is>
           <t>―徒歩17分</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>専有面積：25.11m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3594,39 +3438,37 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>100312507932</v>
+      </c>
+      <c r="C80" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>専有面積：25.11m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3634,39 +3476,37 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>100312491635</v>
+      </c>
+      <c r="C81" t="inlineStr">
         <is>
           <t>―徒歩8分</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区北加瀬１</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：6000円礼金/敷金：7.5万円/7.5万円</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>築7年</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>専有面積：27.5m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3674,39 +3514,37 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>100312488803</v>
+      </c>
+      <c r="C82" t="inlineStr">
         <is>
           <t>―徒歩17分</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>専有面積：25.11m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3714,39 +3552,37 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>100312467749</v>
+      </c>
+      <c r="C83" t="inlineStr">
         <is>
           <t>―徒歩14分</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南幸町１</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：8000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>築9年</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>専有面積：20.59m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3754,39 +3590,37 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>100312467448</v>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>専有面積：25.11m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3794,39 +3628,37 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>100312454545</v>
+      </c>
+      <c r="C85" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>専有面積：25.11m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3834,39 +3666,37 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>100312442043</v>
+      </c>
+      <c r="C86" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>専有面積：25.11m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3874,39 +3704,37 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>100312441997</v>
+      </c>
+      <c r="C87" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>専有面積：25.11m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3914,39 +3742,37 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>100312441935</v>
+      </c>
+      <c r="C88" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>専有面積：25.11m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3954,39 +3780,37 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>100312436621</v>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>専有面積：25.11m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -3994,39 +3818,37 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>100312436523</v>
+      </c>
+      <c r="C90" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>専有面積：25.11m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -4034,39 +3856,37 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>100312434589</v>
+      </c>
+      <c r="C91" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>専有面積：25.11m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -4074,39 +3894,37 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>100312433147</v>
+      </c>
+      <c r="C92" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>専有面積：25.11m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -4114,39 +3932,37 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>100312428654</v>
+      </c>
+      <c r="C93" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>専有面積：25.11m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -4154,39 +3970,37 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>100312428587</v>
+      </c>
+      <c r="C94" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>専有面積：25.11m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -4194,39 +4008,37 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>100312427962</v>
+      </c>
+      <c r="C95" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>専有面積：25.11m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -4234,39 +4046,37 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>100312425956</v>
+      </c>
+      <c r="C96" t="inlineStr">
         <is>
           <t>―徒歩14分</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南幸町１</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：8000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>築9年</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>専有面積：20.59m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -4274,39 +4084,37 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>100312424498</v>
+      </c>
+      <c r="C97" t="inlineStr">
         <is>
           <t>―徒歩20分</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>築15年</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>専有面積：25.11m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -4314,39 +4122,37 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>100312394678</v>
+      </c>
+      <c r="C98" t="inlineStr">
         <is>
           <t>―徒歩16分</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>賃料：7.6万円管理・共益費：5000円礼金/敷金：7.6万円/-</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>築5年</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>専有面積：25.39m2間取り：ワンルーム</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -4354,39 +4160,37 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>100312534799</v>
+      </c>
+      <c r="C99" t="inlineStr">
         <is>
           <t>―徒歩8分</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区戸手本町２</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>賃料：7.8万円管理・共益費：4000円礼金/敷金：7.8万円/-</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>築5年</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>専有面積：26.08m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -4394,39 +4198,37 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>100312529992</v>
+      </c>
+      <c r="C100" t="inlineStr">
         <is>
           <t>―徒歩8分</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区戸手本町２</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>賃料：7.8万円管理・共益費：4000円礼金/敷金：7.8万円/-</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>築5年</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>専有面積：26.08m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>
@@ -4434,39 +4236,37 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>100312495331</v>
+      </c>
+      <c r="C101" t="inlineStr">
         <is>
           <t>―徒歩8分</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>神奈川県川崎市幸区戸手本町２</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>賃料：7.8万円管理・共益費：4000円礼金/敷金：7.8万円/-</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>築5年</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>専有面積：26.08m2間取り：1K</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>100312495331</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -703,36 +703,36 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100312510065</v>
+        <v>100312559075</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>―徒歩22分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手本町１</t>
+          <t>神奈川県川崎市幸区北加瀬３</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：1000円礼金/敷金：-/5.5万円</t>
+          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：5.5万円(5.5万円)/5.5万円</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>東急東横線/元住吉</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>築33年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>専有面積：20.2m2間取り：1K</t>
+          <t>専有面積：16.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -741,16 +741,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100312495358</v>
+        <v>100312546564</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>―徒歩23分</t>
+          <t>―徒歩17分</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向町</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>専有面積：17.6m2間取り：1K</t>
+          <t>専有面積：14.41m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -779,36 +779,36 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100312455521</v>
+        <v>100312510065</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>―徒歩23分</t>
+          <t>―徒歩22分</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向町</t>
+          <t>神奈川県川崎市幸区戸手本町１</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：1000円礼金/敷金：-/5.5万円</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築33年</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>専有面積：17.6m2間取り：1K</t>
+          <t>専有面積：20.2m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100312452854</v>
+        <v>100312495358</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>専有面積：19.9m2間取り：1K</t>
+          <t>専有面積：17.6m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>100312439098</v>
+        <v>100312455521</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>専有面積：19.9m2間取り：1K</t>
+          <t>専有面積：17.6m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -893,36 +893,36 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>100312438803</v>
+        <v>100312452854</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩23分</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬３</t>
+          <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：-礼金/敷金：5.5万円(5.5万円)/5.5万円</t>
+          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>東急東横線/元住吉</t>
+          <t>京急本線/京急川崎</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>専有面積：17m2間取り：ワンルーム</t>
+          <t>専有面積：19.9m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -931,36 +931,36 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>100312419444</v>
+        <v>100312439098</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩23分</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区矢上</t>
+          <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：2000円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>京急本線/京急川崎</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>専有面積：17.5m2間取り：1K</t>
+          <t>専有面積：19.9m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -969,36 +969,36 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>100301143101</v>
+        <v>100312438803</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬２</t>
+          <t>神奈川県川崎市幸区北加瀬３</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>賃料：5.75万円管理・共益費：4500円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：-礼金/敷金：5.5万円(5.5万円)/5.5万円</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>東急東横線/元住吉</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>専有面積：12.5m2間取り：ワンルーム</t>
+          <t>専有面積：17m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1007,36 +1007,36 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>100312490020</v>
+        <v>100312419444</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町１</t>
+          <t>神奈川県川崎市幸区矢上</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>新築</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>専有面積：14m2間取り：ワンルーム</t>
+          <t>専有面積：17.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1045,36 +1045,36 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>100312455470</v>
+        <v>100292855073</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町１</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.8万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>新築</t>
+          <t>築13年</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>専有面積：14m2間取り：ワンルーム</t>
+          <t>専有面積：17.39m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>100312425957</v>
+        <v>100312490020</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1121,36 +1121,36 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>100312527356</v>
+        <v>100312455470</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>―徒歩19分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向仲野町</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：2000円礼金/敷金：-/-</t>
+          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>東急多摩川線/矢口渡</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>築19年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>専有面積：24.77m2間取り：1K</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>100312473227</v>
+        <v>100312425957</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1168,27 +1168,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越１</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>専有面積：11.11m2間取り：ワンルーム</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1197,36 +1197,36 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>100312452368</v>
+        <v>100312527356</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩19分</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区東小倉</t>
+          <t>神奈川県川崎市幸区小向仲野町</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：3000円礼金/敷金：-(6万円)/6万円</t>
+          <t>賃料：6万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>東急多摩川線/矢口渡</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>築4年</t>
+          <t>築19年</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：24.77m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>100312439197</v>
+        <v>100312473227</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1244,12 +1244,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区塚越１</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：1500円礼金/敷金：6万円/6万円</t>
+          <t>賃料：6万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1259,12 +1259,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>築26年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>専有面積：23m2間取り：1K</t>
+          <t>専有面積：11.11m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1273,21 +1273,21 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>100312425946</v>
+        <v>100312452368</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町１</t>
+          <t>神奈川県川崎市幸区東小倉</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>賃料：6.1万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：3000円礼金/敷金：-(6万円)/6万円</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1297,12 +1297,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>新築</t>
+          <t>築4年</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>専有面積：14m2間取り：ワンルーム</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1311,36 +1311,36 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>100312536528</v>
+        <v>100312439197</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：1500円礼金/敷金：6万円/6万円</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>築20年</t>
+          <t>築26年</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>専有面積：18.55m2間取り：1K</t>
+          <t>専有面積：23m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1349,31 +1349,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>100312530097</v>
+        <v>100312425946</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区紺屋町</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：6.1万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1387,36 +1387,36 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>100312522742</v>
+        <v>100312559118</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>築20年</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：18.55m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1425,36 +1425,36 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>100312489985</v>
+        <v>100312536528</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町２</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：-礼金/敷金：-/6.2万円</t>
+          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>築48年</t>
+          <t>築20年</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>専有面積：29.75m2間取り：1LDK</t>
+          <t>専有面積：18.55m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1463,36 +1463,36 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>100312488787</v>
+        <v>100312530097</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区紺屋町</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6.2万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1501,36 +1501,36 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>100312439145</v>
+        <v>100312522742</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>―徒歩23分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手３</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>築7年</t>
+          <t>築23年</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>専有面積：14.53m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>100312424497</v>
+        <v>100312489985</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1548,27 +1548,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区神明町２</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6.2万円管理・共益費：-礼金/敷金：-/6.2万円</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/川崎</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>築48年</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：29.75m2間取り：1LDK</t>
         </is>
       </c>
     </row>
@@ -1577,11 +1577,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>100312424496</v>
+        <v>100312488787</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>築21年</t>
+          <t>築23年</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1615,36 +1615,36 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>100312424431</v>
+        <v>100312439145</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩23分</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区戸手３</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>築21年</t>
+          <t>築7年</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：14.53m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1653,11 +1653,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>100312416259</v>
+        <v>100312424497</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>築21年</t>
+          <t>築23年</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1691,7 +1691,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>100312409517</v>
+        <v>100312424496</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>100312408783</v>
+        <v>100312424431</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>100312407232</v>
+        <v>100312416259</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>100276842061</v>
+        <v>100312409517</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>100220872649</v>
+        <v>100312408783</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1881,11 +1881,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>100182796553</v>
+        <v>100312407232</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>築21年</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1919,36 +1919,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>100312361884</v>
+        <v>100276842061</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町２</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：6000円礼金/敷金：-/-</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>築18年</t>
+          <t>築21年</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>専有面積：19.68m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1957,36 +1957,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>100312452376</v>
+        <v>100220872649</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場２</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>賃料：6.6万円管理・共益費：3000円礼金/敷金：-(3.3万円)/6.6万円</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>築17年</t>
+          <t>築21年</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>専有面積：19.59m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1995,21 +1995,21 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>100312522768</v>
+        <v>100182796553</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築23年</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2033,36 +2033,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>100312488775</v>
+        <v>100312559175</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩22分</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区小向西町２</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.3万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：18.81m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2071,36 +2071,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>100312424495</v>
+        <v>100312361884</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区南幸町２</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.5万円管理・共益費：6000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築18年</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：19.68m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2109,36 +2109,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>100312420745</v>
+        <v>100312452376</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区古市場２</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.6万円管理・共益費：3000円礼金/敷金：-(3.3万円)/6.6万円</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築17年</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：19.59m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2147,36 +2147,36 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>100312490012</v>
+        <v>100312522768</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町２</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>賃料：6.9万円管理・共益費：1000円礼金/敷金：-/6.9万円</t>
+          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>築50年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>専有面積：26.44m2間取り：1DK</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2185,36 +2185,36 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>100312519322</v>
+        <v>100312488775</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町１</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
+          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>専有面積：18.29m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2223,36 +2223,36 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>100312510734</v>
+        <v>100312424495</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町１</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
+          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>専有面積：18.29m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2261,36 +2261,36 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>100312506289</v>
+        <v>100312420745</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町１</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
+          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>専有面積：18.29m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2299,36 +2299,36 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>100312495340</v>
+        <v>100312490012</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区神明町２</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：2000円礼金/敷金：-/7万円</t>
+          <t>賃料：6.9万円管理・共益費：1000円礼金/敷金：-/6.9万円</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>築37年</t>
+          <t>築50年</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>専有面積：32.46m2間取り：2K</t>
+          <t>専有面積：26.44m2間取り：1DK</t>
         </is>
       </c>
     </row>
@@ -2337,36 +2337,36 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>100312490017</v>
+        <v>100312559212</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町２</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：1000円礼金/敷金：-/7万円</t>
+          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>築50年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>専有面積：26.44m2間取り：1DK</t>
+          <t>専有面積：25.42m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -2375,36 +2375,36 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>100312489950</v>
+        <v>100312519322</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区中幸町１</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：2000円礼金/敷金：-/7万円</t>
+          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>築37年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>専有面積：32.46m2間取り：2K</t>
+          <t>専有面積：18.29m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2413,36 +2413,36 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>100312488691</v>
+        <v>100312510734</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区中幸町１</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：15000円礼金/敷金：7万円/-</t>
+          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>専有面積：21.65m2間取り：1K</t>
+          <t>専有面積：18.29m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2451,36 +2451,36 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>100312487169</v>
+        <v>100312506289</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区東古市場</t>
+          <t>神奈川県川崎市幸区中幸町１</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：3000円礼金/敷金：-/14万円</t>
+          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>築33年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>専有面積：40m2間取り：2DK</t>
+          <t>専有面積：18.29m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2489,36 +2489,36 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>100312456028</v>
+        <v>100312490017</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>バス8分停歩1分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区遠藤町</t>
+          <t>神奈川県川崎市幸区神明町２</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：3000円礼金/敷金：7万円/7万円</t>
+          <t>賃料：7万円管理・共益費：1000円礼金/敷金：-/7万円</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築50年</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>専有面積：19.8m2間取り：1K</t>
+          <t>専有面積：26.44m2間取り：1DK</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>100312456027</v>
+        <v>100312488691</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2536,27 +2536,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
+          <t>賃料：7万円管理・共益費：15000円礼金/敷金：7万円/-</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>専有面積：25.42m2間取り：ワンルーム</t>
+          <t>専有面積：21.65m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2565,36 +2565,36 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>100312442416</v>
+        <v>100312487169</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区東古市場</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
+          <t>賃料：7万円管理・共益費：3000円礼金/敷金：-/14万円</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築33年</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>専有面積：25.61m2間取り：ワンルーム</t>
+          <t>専有面積：40m2間取り：2DK</t>
         </is>
       </c>
     </row>
@@ -2603,36 +2603,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>100312442415</v>
+        <v>100312456028</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>バス8分停歩1分</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区遠藤町</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
+          <t>賃料：7万円管理・共益費：3000円礼金/敷金：7万円/7万円</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>専有面積：25.42m2間取り：ワンルーム</t>
+          <t>専有面積：19.8m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2641,36 +2641,36 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>100312438358</v>
+        <v>100312456027</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区大宮町</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/-</t>
+          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>築20年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>専有面積：23.56m2間取り：1K</t>
+          <t>専有面積：25.42m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -2679,36 +2679,36 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>100312516654</v>
+        <v>100312442416</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区柳町</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：5000円礼金/敷金：7.1万円/7.1万円</t>
+          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>築20年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>専有面積：20.23m2間取り：1K</t>
+          <t>専有面積：25.61m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -2717,21 +2717,21 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>100312506336</v>
+        <v>100312442415</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古川町</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：4000円礼金/敷金：7.1万円/-</t>
+          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>専有面積：22.35m2間取り：1K</t>
+          <t>専有面積：25.42m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -2755,36 +2755,36 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>100312497269</v>
+        <v>100312438358</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区下平間</t>
+          <t>神奈川県川崎市幸区大宮町</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：5000円礼金/敷金：7.1万円/7.1万円</t>
+          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>築14年</t>
+          <t>築20年</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>専有面積：22.36m2間取り：1K</t>
+          <t>専有面積：23.56m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>100312489983</v>
+        <v>100312516654</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区下平間</t>
+          <t>神奈川県川崎市幸区柳町</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2812,17 +2812,17 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>築14年</t>
+          <t>築20年</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>専有面積：22.36m2間取り：1K</t>
+          <t>専有面積：20.23m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2831,36 +2831,36 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>100312461560</v>
+        <v>100312506336</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>―徒歩25分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向町</t>
+          <t>神奈川県川崎市幸区古川町</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：2000円礼金/敷金：-/-</t>
+          <t>賃料：7.1万円管理・共益費：4000円礼金/敷金：7.1万円/-</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>専有面積：21.02m2間取り：1K</t>
+          <t>専有面積：22.35m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2869,36 +2869,36 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>100312452378</v>
+        <v>100312497269</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古川町</t>
+          <t>神奈川県川崎市幸区下平間</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：4000円礼金/敷金：7.1万円/-</t>
+          <t>賃料：7.1万円管理・共益費：5000円礼金/敷金：7.1万円/7.1万円</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築14年</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>専有面積：22.35m2間取り：1K</t>
+          <t>専有面積：22.36m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2907,36 +2907,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>100312505135</v>
+        <v>100312489983</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区下平間</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>賃料：7.2万円管理・共益費：15000円礼金/敷金：7.2万円/-</t>
+          <t>賃料：7.1万円管理・共益費：5000円礼金/敷金：7.1万円/7.1万円</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築14年</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>専有面積：21.3m2間取り：1K</t>
+          <t>専有面積：22.36m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2945,26 +2945,26 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>100312461225</v>
+        <v>100312461560</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>―徒歩22分</t>
+          <t>―徒歩25分</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>賃料：7.2万円管理・共益費：5000円礼金/敷金：6万円/-</t>
+          <t>賃料：7.1万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>京急本線/京急川崎</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>専有面積：22.52m2間取り：1K</t>
+          <t>専有面積：21.02m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2983,36 +2983,36 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>100312455412</v>
+        <v>100312452378</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>バス10分停歩2分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手２</t>
+          <t>神奈川県川崎市幸区古川町</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>賃料：7.2万円管理・共益費：3000円礼金/敷金：7.2万円/7.2万円</t>
+          <t>賃料：7.1万円管理・共益費：4000円礼金/敷金：7.1万円/-</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>築36年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>専有面積：38m2間取り：2DK</t>
+          <t>専有面積：22.35m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3021,36 +3021,36 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>100312442417</v>
+        <v>100312505135</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町３</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>賃料：7.2万円管理・共益費：6000円礼金/敷金：7.2万円/7.2万円</t>
+          <t>賃料：7.2万円管理・共益費：15000円礼金/敷金：7.2万円/-</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>築24年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>専有面積：25.92m2間取り：1K</t>
+          <t>専有面積：21.3m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3059,36 +3059,36 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>100312516655</v>
+        <v>100312461225</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩22分</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区柳町</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
+          <t>賃料：7.2万円管理・共益費：5000円礼金/敷金：6万円/-</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>専有面積：24.02m2間取り：1K</t>
+          <t>専有面積：22.52m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3097,36 +3097,36 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>100312477748</v>
+        <v>100312455412</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>バス10分停歩2分</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区戸手２</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
+          <t>賃料：7.2万円管理・共益費：3000円礼金/敷金：7.2万円/7.2万円</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>築11年</t>
+          <t>築36年</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>専有面積：29.81m2間取り：1DK</t>
+          <t>専有面積：38m2間取り：2DK</t>
         </is>
       </c>
     </row>
@@ -3135,36 +3135,36 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>100312473852</v>
+        <v>100312442417</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区小向西町３</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
+          <t>賃料：7.2万円管理・共益費：6000円礼金/敷金：7.2万円/7.2万円</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>築11年</t>
+          <t>築24年</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>専有面積：29.81m2間取り：1DK</t>
+          <t>専有面積：25.92m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3173,36 +3173,36 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>100312473816</v>
+        <v>100312543125</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩21分</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区東古市場</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
+          <t>賃料：7.3万円管理・共益費：5500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>築11年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>専有面積：29.81m2間取り：1DK</t>
+          <t>専有面積：21.32m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3211,36 +3211,36 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>100312473733</v>
+        <v>100312543052</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩26分</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区東古市場</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
+          <t>賃料：7.3万円管理・共益費：5500円礼金/敷金：7.3万円/-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>築11年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>専有面積：29.81m2間取り：1DK</t>
+          <t>専有面積：21.32m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3249,16 +3249,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>100312456032</v>
+        <v>100312516655</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区柳町</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3268,17 +3268,17 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>築11年</t>
+          <t>築23年</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>専有面積：29.81m2間取り：1DK</t>
+          <t>専有面積：24.02m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>100312442421</v>
+        <v>100312477748</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -3296,12 +3296,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古川町</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：4000円礼金/敷金：7.4万円/-</t>
+          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3311,12 +3311,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築11年</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>専有面積：26.08m2間取り：1K</t>
+          <t>専有面積：29.81m2間取り：1DK</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>100312442420</v>
+        <v>100312473852</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -3363,36 +3363,36 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>100312534213</v>
+        <v>100312473816</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築11年</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：29.81m2間取り：1DK</t>
         </is>
       </c>
     </row>
@@ -3401,36 +3401,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>100312522710</v>
+        <v>100312473733</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>―徒歩17分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築11年</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：29.81m2間取り：1DK</t>
         </is>
       </c>
     </row>
@@ -3439,36 +3439,36 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>100312507932</v>
+        <v>100312456032</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築11年</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：29.81m2間取り：1DK</t>
         </is>
       </c>
     </row>
@@ -3477,36 +3477,36 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>100312491635</v>
+        <v>100312442421</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬１</t>
+          <t>神奈川県川崎市幸区古川町</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：6000円礼金/敷金：7.5万円/7.5万円</t>
+          <t>賃料：7.4万円管理・共益費：4000円礼金/敷金：7.4万円/-</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>築7年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>専有面積：27.5m2間取り：ワンルーム</t>
+          <t>専有面積：26.08m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3515,36 +3515,36 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>100312488803</v>
+        <v>100312442420</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>―徒歩17分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築11年</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：29.81m2間取り：1DK</t>
         </is>
       </c>
     </row>
@@ -3553,36 +3553,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>100312467749</v>
+        <v>100308785392</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩11分</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町１</t>
+          <t>神奈川県川崎市幸区南幸町２</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：8000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.4万円管理・共益費：4000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>専有面積：20.59m2間取り：1K</t>
+          <t>専有面積：21.26m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>100312467448</v>
+        <v>100312565838</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -3629,36 +3629,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>100312454545</v>
+        <v>100312551068</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区南幸町１</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.5万円管理・共益費：8000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築9年</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：20.59m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>100312442043</v>
+        <v>100312534213</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3705,11 +3705,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>100312441997</v>
+        <v>100312522710</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩17分</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3743,7 +3743,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>100312441935</v>
+        <v>100312507932</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3781,21 +3781,21 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>100312436621</v>
+        <v>100312491635</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩8分</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区北加瀬１</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.5万円管理・共益費：6000円礼金/敷金：7.5万円/7.5万円</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3805,12 +3805,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築7年</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：27.5m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -3819,11 +3819,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>100312436523</v>
+        <v>100312488803</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩17分</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3857,36 +3857,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>100312434589</v>
+        <v>100312467749</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区南幸町１</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.5万円管理・共益費：8000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築9年</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：20.59m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>100312433147</v>
+        <v>100312467448</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>100312428654</v>
+        <v>100312454545</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>100312428587</v>
+        <v>100312442043</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>100312427962</v>
+        <v>100312441997</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -4047,36 +4047,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>100312425956</v>
+        <v>100312441935</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町１</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：8000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>専有面積：20.59m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4085,7 +4085,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>100312424498</v>
+        <v>100312436621</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -4123,21 +4123,21 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>100312394678</v>
+        <v>100312436523</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>賃料：7.6万円管理・共益費：5000円礼金/敷金：7.6万円/-</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4147,12 +4147,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>専有面積：25.39m2間取り：ワンルーム</t>
+          <t>専有面積：25.11m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4161,36 +4161,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>100312534799</v>
+        <v>100312434589</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手本町２</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>賃料：7.8万円管理・共益費：4000円礼金/敷金：7.8万円/-</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>専有面積：26.08m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4199,36 +4199,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>100312529992</v>
+        <v>100312433147</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手本町２</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>賃料：7.8万円管理・共益費：4000円礼金/敷金：7.8万円/-</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>専有面積：26.08m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4237,36 +4237,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>100312495331</v>
+        <v>100312428654</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手本町２</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>賃料：7.8万円管理・共益費：4000円礼金/敷金：7.8万円/-</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>専有面積：26.08m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>100312473732</v>
+        <v>100312666818</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -513,11 +513,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>100312470977</v>
+        <v>100312653097</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩11分</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -551,21 +551,21 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>100312412584</v>
+        <v>100312617608</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場１</t>
+          <t>神奈川県川崎市幸区古川町</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>賃料：4.7万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：4.35万円管理・共益費：7500円礼金/敷金：-/4.35万円</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -575,12 +575,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>築34年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>専有面積：18m2間取り：1K</t>
+          <t>専有面積：16.64m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>100312469611</v>
+        <v>100312581490</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -598,17 +598,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町２</t>
+          <t>神奈川県川崎市幸区古川町</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>賃料：5万円管理・共益費：-礼金/敷金：5万円/5万円</t>
+          <t>賃料：4.35万円管理・共益費：7500円礼金/敷金：-/4.35万円</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>専有面積：13.35m2間取り：1K</t>
+          <t>専有面積：16.64m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -627,36 +627,36 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>100312455532</v>
+        <v>100312581340</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区紺屋町</t>
+          <t>神奈川県川崎市幸区古川町</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>賃料：5.2万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：4.35万円管理・共益費：7500円礼金/敷金：-/4.35万円</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>築17年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>専有面積：12.67m2間取り：ワンルーム</t>
+          <t>専有面積：16.64m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -665,36 +665,36 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>100312473229</v>
+        <v>100312586331</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越１</t>
+          <t>神奈川県川崎市幸区古市場１</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>賃料：5.4万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：4.8万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>専有面積：11.11m2間取り：ワンルーム</t>
+          <t>専有面積：12.37m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100312559075</v>
+        <v>100312586320</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -712,27 +712,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬３</t>
+          <t>神奈川県川崎市幸区古市場１</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：5.5万円(5.5万円)/5.5万円</t>
+          <t>賃料：4.8万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>東急東横線/元住吉</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>築31年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>専有面積：16.5m2間取り：1K</t>
+          <t>専有面積：12.37m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -741,36 +741,36 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100312546564</v>
+        <v>100312586318</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>―徒歩17分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区古市場１</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：4.8万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>専有面積：14.41m2間取り：ワンルーム</t>
+          <t>専有面積：12.37m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -779,36 +779,36 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100312510065</v>
+        <v>100312581351</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>―徒歩22分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手本町１</t>
+          <t>神奈川県川崎市幸区中幸町２</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：1000円礼金/敷金：-/5.5万円</t>
+          <t>賃料：4.8万円管理・共益費：-礼金/敷金：4.8万円/4.8万円</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/川崎</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>築33年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>専有面積：20.2m2間取り：1K</t>
+          <t>専有面積：13.35m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -817,36 +817,36 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100312495358</v>
+        <v>100312586324</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>―徒歩23分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向町</t>
+          <t>神奈川県川崎市幸区古市場１</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：5.05万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>専有面積：17.6m2間取り：1K</t>
+          <t>専有面積：12.37m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -855,36 +855,36 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>100312455521</v>
+        <v>100312630787</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>―徒歩23分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向町</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：5.2万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築25年</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>専有面積：17.6m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -893,21 +893,21 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>100312452854</v>
+        <v>100308371367</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>―徒歩23分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向町</t>
+          <t>神奈川県川崎市幸区幸町１</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：5.37万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -917,12 +917,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>専有面積：19.9m2間取り：1K</t>
+          <t>専有面積：16.45m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -931,36 +931,36 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>100312439098</v>
+        <v>100312639977</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>―徒歩23分</t>
+          <t>バス13分停歩1分</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向町</t>
+          <t>神奈川県川崎市幸区南加瀬５</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：5.4万円管理・共益費：5500円礼金/敷金：2.7万円/-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築13年</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>専有面積：19.9m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -969,36 +969,36 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>100312438803</v>
+        <v>100312552677</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>バス13分停歩1分</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬３</t>
+          <t>神奈川県川崎市幸区南加瀬５</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：-礼金/敷金：5.5万円(5.5万円)/5.5万円</t>
+          <t>賃料：5.4万円管理・共益費：5500円礼金/敷金：2.7万円/-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>東急東横線/元住吉</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築13年</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>専有面積：17m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1007,36 +1007,36 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>100312419444</v>
+        <v>100312666656</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩23分</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区矢上</t>
+          <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：2000円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>京急本線/京急川崎</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>専有面積：17.5m2間取り：1K</t>
+          <t>専有面積：17.6m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1045,26 +1045,26 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>100292855073</v>
+        <v>100312639967</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>バス13分停歩1分</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区南加瀬５</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>賃料：5.8万円管理・共益費：2000円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：5500円礼金/敷金：2.75万円/-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>専有面積：17.39m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1083,36 +1083,36 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>100312490020</v>
+        <v>100312619278</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩8分</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町１</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：-礼金/敷金：5.5万円/5.5万円</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>新築</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>専有面積：14m2間取り：ワンルーム</t>
+          <t>専有面積：17.57m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1121,36 +1121,36 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>100312455470</v>
+        <v>100312586322</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町１</t>
+          <t>神奈川県川崎市幸区小倉１</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>新築</t>
+          <t>築2年</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>専有面積：14m2間取り：ワンルーム</t>
+          <t>専有面積：11.4m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1159,36 +1159,36 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>100312425957</v>
+        <v>100312581597</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩6分</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町１</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：-礼金/敷金：5.5万円/5.5万円</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>新築</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>専有面積：14m2間取り：ワンルーム</t>
+          <t>専有面積：17.57m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1197,36 +1197,36 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>100312527356</v>
+        <v>100312581486</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>―徒歩19分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向仲野町</t>
+          <t>神奈川県川崎市幸区古市場１</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：2000円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：1000円礼金/敷金：5.5万円/5.5万円</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>東急多摩川線/矢口渡</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>築19年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>専有面積：24.77m2間取り：1K</t>
+          <t>専有面積：17.57m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1235,36 +1235,36 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>100312473227</v>
+        <v>100312559075</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越１</t>
+          <t>神奈川県川崎市幸区北加瀬３</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：5.5万円(5.5万円)/5.5万円</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>東急東横線/元住吉</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>専有面積：11.11m2間取り：ワンルーム</t>
+          <t>専有面積：16.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1273,36 +1273,36 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>100312452368</v>
+        <v>100312546564</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩17分</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区東小倉</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：3000円礼金/敷金：-(6万円)/6万円</t>
+          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>築4年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：14.41m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>100312439197</v>
+        <v>100312653107</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1320,27 +1320,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区古市場２</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：1500円礼金/敷金：6万円/6万円</t>
+          <t>賃料：5.7万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>築26年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>専有面積：23m2間取り：1K</t>
+          <t>専有面積：17.11m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1349,36 +1349,36 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>100312425946</v>
+        <v>100312672069</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>バス8分停歩6分</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町１</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>賃料：6.1万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.8万円管理・共益費：5500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>新築</t>
+          <t>築22年</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>専有面積：14m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1387,36 +1387,36 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>100312559118</v>
+        <v>100308073005</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：5.8万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>築20年</t>
+          <t>築9年</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>専有面積：18.55m2間取り：1K</t>
+          <t>専有面積：15.49m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1425,36 +1425,36 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>100312536528</v>
+        <v>100292855073</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：5.8万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>築20年</t>
+          <t>築13年</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>専有面積：18.55m2間取り：1K</t>
+          <t>専有面積：17.39m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1463,36 +1463,36 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>100312530097</v>
+        <v>100312639966</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩24分</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区紺屋町</t>
+          <t>神奈川県川崎市幸区南加瀬２</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.9万円管理・共益費：5500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>専有面積：14m2間取り：ワンルーム</t>
+          <t>専有面積：20.81m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1501,36 +1501,36 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>100312522742</v>
+        <v>100312586325</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1539,36 +1539,36 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>100312489985</v>
+        <v>100312586314</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町２</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：-礼金/敷金：-/6.2万円</t>
+          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>築48年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>専有面積：29.75m2間取り：1LDK</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1577,31 +1577,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>100312488787</v>
+        <v>100312672060</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6万円管理・共益費：5500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>湘南新宿ライン宇須/新川崎</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>築22年</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1615,36 +1615,36 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>100312439145</v>
+        <v>100312592413</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>―徒歩23分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手３</t>
+          <t>神奈川県川崎市幸区塚越１</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>築7年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>専有面積：14.53m2間取り：ワンルーム</t>
+          <t>専有面積：11.11m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1653,36 +1653,36 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>100312424497</v>
+        <v>100312586315</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1691,36 +1691,36 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>100312424496</v>
+        <v>100312586330</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6.1万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>築21年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1729,21 +1729,21 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>100312424431</v>
+        <v>100312653111</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区小倉３</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6.15万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1753,12 +1753,12 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>築21年</t>
+          <t>築13年</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：13.75m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1767,36 +1767,36 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>100312416259</v>
+        <v>100312664076</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区中幸町４</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：6.2万円/6.2万円</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>築21年</t>
+          <t>築37年</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：23.25m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1805,36 +1805,36 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>100312409517</v>
+        <v>100312663897</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区中幸町４</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：6.2万円/6.2万円</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>築21年</t>
+          <t>築37年</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：23.25m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1843,36 +1843,36 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>100312408783</v>
+        <v>100312663884</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区中幸町４</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：6.2万円/6.2万円</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>築21年</t>
+          <t>築37年</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：23.25m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1881,36 +1881,36 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>100312407232</v>
+        <v>100312586312</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6.2万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>築21年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1919,11 +1919,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>100276842061</v>
+        <v>100312559537</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>築21年</t>
+          <t>築23年</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1957,36 +1957,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>100220872649</v>
+        <v>100312559118</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>築21年</t>
+          <t>築20年</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：18.55m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>100182796553</v>
+        <v>100312546606</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2033,36 +2033,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>100312559175</v>
+        <v>100312543155</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>―徒歩22分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町２</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>賃料：6.3万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築23年</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>専有面積：18.81m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2071,36 +2071,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>100312361884</v>
+        <v>100312542631</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町２</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：6000円礼金/敷金：-/-</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>築18年</t>
+          <t>築23年</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>専有面積：19.68m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2109,36 +2109,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>100312452376</v>
+        <v>100312542322</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場２</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>賃料：6.6万円管理・共益費：3000円礼金/敷金：-(3.3万円)/6.6万円</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>築17年</t>
+          <t>築23年</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>専有面積：19.59m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2147,36 +2147,36 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>100312522768</v>
+        <v>100312559175</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩22分</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区小向西町２</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.3万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：18.81m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>100312488775</v>
+        <v>100312546424</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.3万円管理・共益費：5500円礼金/敷金：6.3万円/-</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築14年</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2223,36 +2223,36 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>100312424495</v>
+        <v>100312686599</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩8分</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越４</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.35万円管理・共益費：1500円礼金/敷金：6.35万円(6.35万円)/6.35万円</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築14年</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：24.04m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2261,36 +2261,36 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>100312420745</v>
+        <v>100312633802</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区北加瀬３</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.4万円管理・共益費：12000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>東急東横線/元住吉</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築9年</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：21.55m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2299,21 +2299,21 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>100312490012</v>
+        <v>100275799624</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>バス13分停歩3分</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町２</t>
+          <t>神奈川県川崎市幸区戸手１</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>賃料：6.9万円管理・共益費：1000円礼金/敷金：-/6.9万円</t>
+          <t>賃料：6.4万円管理・共益費：5500円礼金/敷金：6.4万円/-</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2323,12 +2323,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>築50年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>専有面積：26.44m2間取り：1DK</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2337,11 +2337,11 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>100312559212</v>
+        <v>100312683404</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>専有面積：25.42m2間取り：ワンルーム</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2375,36 +2375,36 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>100312519322</v>
+        <v>100312683397</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町１</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>専有面積：18.29m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2413,36 +2413,36 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>100312510734</v>
+        <v>100312683390</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町１</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>専有面積：18.29m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2451,36 +2451,36 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>100312506289</v>
+        <v>100312683382</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町１</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>専有面積：18.29m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2489,36 +2489,36 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>100312490017</v>
+        <v>100312666576</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町２</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：1000円礼金/敷金：-/7万円</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>築50年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>専有面積：26.44m2間取り：1DK</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2527,36 +2527,36 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>100312488691</v>
+        <v>100312666568</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：15000円礼金/敷金：7万円/-</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>専有面積：21.65m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2565,36 +2565,36 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>100312487169</v>
+        <v>100312666563</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区東古市場</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：3000円礼金/敷金：-/14万円</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>築33年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>専有面積：40m2間取り：2DK</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2603,36 +2603,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>100312456028</v>
+        <v>100312666486</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>バス8分停歩1分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区遠藤町</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：3000円礼金/敷金：7万円/7万円</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>専有面積：19.8m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2641,36 +2641,36 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>100312456027</v>
+        <v>100306043912</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区北加瀬３</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：6.5万円/6.5万円</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>東急東横線/元住吉</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築36年</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>専有面積：25.42m2間取り：ワンルーム</t>
+          <t>専有面積：28m2間取り：2K</t>
         </is>
       </c>
     </row>
@@ -2679,36 +2679,36 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>100312442416</v>
+        <v>100312672056</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
+          <t>賃料：6.7万円管理・共益費：5500円礼金/敷金：6.7万円/-</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>専有面積：25.61m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2717,11 +2717,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>100312442415</v>
+        <v>100312683387</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
+          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>専有面積：25.42m2間取り：ワンルーム</t>
+          <t>専有面積：21.2m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2755,36 +2755,36 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>100312438358</v>
+        <v>100312676913</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩21分</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区大宮町</t>
+          <t>神奈川県川崎市幸区小向西町２</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/-</t>
+          <t>賃料：6.8万円管理・共益費：4000円礼金/敷金：3.4万円/-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>築20年</t>
+          <t>築11年</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>専有面積：23.56m2間取り：1K</t>
+          <t>専有面積：24.4m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2793,36 +2793,36 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>100312516654</v>
+        <v>100312674039</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩21分</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区柳町</t>
+          <t>神奈川県川崎市幸区小向西町２</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：5000円礼金/敷金：7.1万円/7.1万円</t>
+          <t>賃料：6.8万円管理・共益費：4000円礼金/敷金：3.4万円/-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>築20年</t>
+          <t>築11年</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>専有面積：20.23m2間取り：1K</t>
+          <t>専有面積：24.4m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2831,21 +2831,21 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>100312506336</v>
+        <v>100312666585</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古川町</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：4000円礼金/敷金：7.1万円/-</t>
+          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2855,12 +2855,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>専有面積：22.35m2間取り：1K</t>
+          <t>専有面積：21.2m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2869,36 +2869,36 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>100312497269</v>
+        <v>100312581344</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区下平間</t>
+          <t>神奈川県川崎市幸区神明町２</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：5000円礼金/敷金：7.1万円/7.1万円</t>
+          <t>賃料：6.8万円管理・共益費：1000円礼金/敷金：-/6.8万円</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>築14年</t>
+          <t>築50年</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>専有面積：22.36m2間取り：1K</t>
+          <t>専有面積：26.44m2間取り：1DK</t>
         </is>
       </c>
     </row>
@@ -2907,36 +2907,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>100312489983</v>
+        <v>100312559267</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区下平間</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：5000円礼金/敷金：7.1万円/7.1万円</t>
+          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>築14年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>専有面積：22.36m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2945,36 +2945,36 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>100312461560</v>
+        <v>100312550641</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>―徒歩25分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向町</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：2000円礼金/敷金：-/-</t>
+          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>専有面積：21.02m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2983,36 +2983,36 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>100312452378</v>
+        <v>100312546605</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古川町</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：4000円礼金/敷金：7.1万円/-</t>
+          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>専有面積：22.35m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3021,36 +3021,36 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>100312505135</v>
+        <v>100312543154</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>賃料：7.2万円管理・共益費：15000円礼金/敷金：7.2万円/-</t>
+          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>専有面積：21.3m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3059,11 +3059,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>100312461225</v>
+        <v>100312542947</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>―徒歩22分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3073,7 +3073,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>賃料：7.2万円管理・共益費：5000円礼金/敷金：6万円/-</t>
+          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3083,12 +3083,12 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>専有面積：22.52m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3097,36 +3097,36 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>100312455412</v>
+        <v>100312542356</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>バス10分停歩2分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手２</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>賃料：7.2万円管理・共益費：3000円礼金/敷金：7.2万円/7.2万円</t>
+          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>築36年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>専有面積：38m2間取り：2DK</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3135,36 +3135,36 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>100312442417</v>
+        <v>100312542321</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町３</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>賃料：7.2万円管理・共益費：6000円礼金/敷金：7.2万円/7.2万円</t>
+          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>築24年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>専有面積：25.92m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3173,36 +3173,36 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>100312543125</v>
+        <v>100294754776</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>―徒歩21分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区東古市場</t>
+          <t>神奈川県川崎市幸区中幸町１</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>賃料：7.3万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/6.8万円</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築33年</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>専有面積：21.32m2間取り：1K</t>
+          <t>専有面積：25.17m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3211,36 +3211,36 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>100312543052</v>
+        <v>100312680574</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>―徒歩26分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区東古市場</t>
+          <t>神奈川県川崎市幸区柳町</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>賃料：7.3万円管理・共益費：5500円礼金/敷金：7.3万円/-</t>
+          <t>賃料：6.9万円管理・共益費：15000円礼金/敷金：6.9万円/-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築10年</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>専有面積：21.32m2間取り：1K</t>
+          <t>専有面積：20.77m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>100312516655</v>
+        <v>100312663820</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3263,22 +3263,22 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
+          <t>賃料：6.9万円管理・共益費：10000円礼金/敷金：6.9万円/-</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>築10年</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>専有面積：24.02m2間取り：1K</t>
+          <t>専有面積：23.7m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3287,36 +3287,36 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>100312477748</v>
+        <v>100283745289</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区南幸町２</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
+          <t>賃料：6.9万円管理・共益費：6000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>築11年</t>
+          <t>築18年</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>専有面積：29.81m2間取り：1DK</t>
+          <t>専有面積：19.68m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3325,36 +3325,36 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>100312473852</v>
+        <v>100312682894</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区大宮町</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
+          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/-</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>築11年</t>
+          <t>築20年</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>専有面積：29.81m2間取り：1DK</t>
+          <t>専有面積：23.56m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3363,36 +3363,36 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>100312473816</v>
+        <v>100312676170</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区大宮町</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
+          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/-</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>築11年</t>
+          <t>築20年</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>専有面積：29.81m2間取り：1DK</t>
+          <t>専有面積：23.56m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3401,36 +3401,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>100312473733</v>
+        <v>100312667127</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区中幸町１</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
+          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>築11年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>専有面積：29.81m2間取り：1DK</t>
+          <t>専有面積：18.29m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3439,36 +3439,36 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>100312456032</v>
+        <v>100312592411</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区都町</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
+          <t>賃料：7万円管理・共益費：1000円礼金/敷金：7万円/-</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>築11年</t>
+          <t>築23年</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>専有面積：29.81m2間取り：1DK</t>
+          <t>専有面積：23.19m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3477,21 +3477,21 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>100312442421</v>
+        <v>100312559212</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古川町</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：4000円礼金/敷金：7.4万円/-</t>
+          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3501,12 +3501,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>専有面積：26.08m2間取り：1K</t>
+          <t>専有面積：25.42m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -3515,36 +3515,36 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>100312442420</v>
+        <v>100312680619</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩3分</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
+          <t>賃料：7.05万円管理・共益費：15000円礼金/敷金：7.05万円/-</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>築11年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>専有面積：29.81m2間取り：1DK</t>
+          <t>専有面積：21.3m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3553,36 +3553,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>100308785392</v>
+        <v>100312686614</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>―徒歩11分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町２</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：4000円礼金/敷金：-/-</t>
+          <t>賃料：7.1万円管理・共益費：9500円礼金/敷金：-(7.1万円)/-(7.1万円)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築10年</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>専有面積：21.26m2間取り：1K</t>
+          <t>専有面積：20.66m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3591,36 +3591,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>100312565838</v>
+        <v>100312619750</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：20.13m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3629,36 +3629,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>100312551068</v>
+        <v>100312597093</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町１</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：8000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>専有面積：20.59m2間取り：1K</t>
+          <t>専有面積：20.13m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3667,36 +3667,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>100312534213</v>
+        <v>100312586328</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：20.13m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3705,36 +3705,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>100312522710</v>
+        <v>100312586177</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>―徒歩17分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：20.13m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3743,36 +3743,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>100312507932</v>
+        <v>100312581503</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区下平間</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.1万円管理・共益費：5000円礼金/敷金：7.1万円/7.1万円</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築14年</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：22.36m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3781,36 +3781,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>100312491635</v>
+        <v>100312581449</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬１</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：6000円礼金/敷金：7.5万円/7.5万円</t>
+          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>築7年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>専有面積：27.5m2間取り：ワンルーム</t>
+          <t>専有面積：20.13m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3819,36 +3819,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>100312488803</v>
+        <v>100312625633</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>―徒歩17分</t>
+          <t>―徒歩3分</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.2万円管理・共益費：15000円礼金/敷金：7.2万円/-</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：21.3m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3857,21 +3857,21 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>100312467749</v>
+        <v>100312592558</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町１</t>
+          <t>神奈川県川崎市幸区中幸町４</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：8000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.2万円管理・共益費：10000円礼金/敷金：7.2万円/-</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3881,12 +3881,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>専有面積：20.59m2間取り：1K</t>
+          <t>専有面積：20.2m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3895,36 +3895,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>100312467448</v>
+        <v>100312680835</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区南幸町１</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.3万円管理・共益費：8000円礼金/敷金：7.3万円/-</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築9年</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：20.61m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3933,36 +3933,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>100312454545</v>
+        <v>100312543125</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩21分</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区東古市場</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.3万円管理・共益費：5500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：21.32m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3971,21 +3971,21 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>100312442043</v>
+        <v>100312543052</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩26分</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区東古市場</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.3万円管理・共益費：5500円礼金/敷金：7.3万円/-</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3995,12 +3995,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：21.32m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4009,36 +4009,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>100312441997</v>
+        <v>100312686650</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築11年</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：29.81m2間取り：1DK</t>
         </is>
       </c>
     </row>
@@ -4047,36 +4047,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>100312441935</v>
+        <v>100309626655</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区古市場２</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：7.4万円(7.4万円)/7.4万円</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築14年</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：23.76m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4085,36 +4085,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>100312436621</v>
+        <v>100308785392</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩11分</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区南幸町２</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.4万円管理・共益費：4000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：21.26m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4123,36 +4123,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>100312436523</v>
+        <v>100312680863</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区南幸町１</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.5万円管理・共益費：15000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：20.85m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4161,36 +4161,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>100312434589</v>
+        <v>100312670912</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区小向西町２</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.5万円管理・共益費：3000円礼金/敷金：7.5万円/7.5万円</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：27.58m2間取り：1DK</t>
         </is>
       </c>
     </row>
@@ -4199,36 +4199,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>100312433147</v>
+        <v>100312664084</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区南幸町１</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.5万円管理・共益費：15000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：20.85m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4237,36 +4237,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>100312428654</v>
+        <v>100312664000</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区南幸町１</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.5万円管理・共益費：8000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築9年</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：20.59m2間取り：1K</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -475,11 +475,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>100312666818</v>
+        <v>100312653097</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩11分</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -513,21 +513,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>100312653097</v>
+        <v>100312586331</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>―徒歩11分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古川町</t>
+          <t>神奈川県川崎市幸区古市場１</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>賃料：4.35万円管理・共益費：7500円礼金/敷金：-/4.35万円</t>
+          <t>賃料：4.8万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>専有面積：16.64m2間取り：ワンルーム</t>
+          <t>専有面積：12.37m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -551,21 +551,21 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>100312617608</v>
+        <v>100312586320</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古川町</t>
+          <t>神奈川県川崎市幸区古市場１</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>賃料：4.35万円管理・共益費：7500円礼金/敷金：-/4.35万円</t>
+          <t>賃料：4.8万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -575,12 +575,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>専有面積：16.64m2間取り：ワンルーム</t>
+          <t>専有面積：12.37m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -589,21 +589,21 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>100312581490</v>
+        <v>100312586318</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古川町</t>
+          <t>神奈川県川崎市幸区古市場１</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>賃料：4.35万円管理・共益費：7500円礼金/敷金：-/4.35万円</t>
+          <t>賃料：4.8万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -613,12 +613,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>専有面積：16.64m2間取り：ワンルーム</t>
+          <t>専有面積：12.37m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>100312581340</v>
+        <v>100312581351</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -636,17 +636,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古川町</t>
+          <t>神奈川県川崎市幸区中幸町２</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>賃料：4.35万円管理・共益費：7500円礼金/敷金：-/4.35万円</t>
+          <t>賃料：4.8万円管理・共益費：-礼金/敷金：4.8万円/4.8万円</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ南武線/川崎</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>専有面積：16.64m2間取り：ワンルーム</t>
+          <t>専有面積：13.35m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -665,21 +665,21 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>100312586331</v>
+        <v>100312700649</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩8分</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場１</t>
+          <t>神奈川県川崎市幸区下平間</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>賃料：4.8万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：4.9万円管理・共益費：3000円礼金/敷金：2.45万円/-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築30年</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>専有面積：12.37m2間取り：ワンルーム</t>
+          <t>専有面積：16.03m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100312586320</v>
+        <v>100312586324</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>賃料：4.8万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.05万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -741,36 +741,36 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100312586318</v>
+        <v>100312630787</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場１</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>賃料：4.8万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.2万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築25年</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>専有面積：12.37m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -779,26 +779,26 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100312581351</v>
+        <v>100308371367</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町２</t>
+          <t>神奈川県川崎市幸区幸町１</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>賃料：4.8万円管理・共益費：-礼金/敷金：4.8万円/4.8万円</t>
+          <t>賃料：5.37万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/川崎</t>
+          <t>京急本線/京急川崎</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>専有面積：13.35m2間取り：1K</t>
+          <t>専有面積：16.45m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -817,36 +817,36 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100312586324</v>
+        <v>100312639977</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>バス13分停歩1分</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場１</t>
+          <t>神奈川県川崎市幸区南加瀬５</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>賃料：5.05万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.4万円管理・共益費：5500円礼金/敷金：2.7万円/-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築13年</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>専有面積：12.37m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -855,36 +855,36 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>100312630787</v>
+        <v>100312552677</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>バス13分停歩1分</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区南加瀬５</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>賃料：5.2万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：5.4万円管理・共益費：5500円礼金/敷金：2.7万円/-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>築25年</t>
+          <t>築13年</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -893,21 +893,21 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>100308371367</v>
+        <v>100312666656</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩23分</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区幸町１</t>
+          <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>賃料：5.37万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -917,12 +917,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>専有面積：16.45m2間取り：ワンルーム</t>
+          <t>専有面積：17.6m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>100312639977</v>
+        <v>100312639967</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>賃料：5.4万円管理・共益費：5500円礼金/敷金：2.7万円/-</t>
+          <t>賃料：5.5万円管理・共益費：5500円礼金/敷金：2.75万円/-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -969,36 +969,36 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>100312552677</v>
+        <v>100312619278</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>バス13分停歩1分</t>
+          <t>―徒歩8分</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬５</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>賃料：5.4万円管理・共益費：5500円礼金/敷金：2.7万円/-</t>
+          <t>賃料：5.5万円管理・共益費：-礼金/敷金：5.5万円/5.5万円</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>築13年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：17.57m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1007,36 +1007,36 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>100312666656</v>
+        <v>100312586322</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>―徒歩23分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向町</t>
+          <t>神奈川県川崎市幸区小倉１</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築2年</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>専有面積：17.6m2間取り：1K</t>
+          <t>専有面積：11.4m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1045,36 +1045,36 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>100312639967</v>
+        <v>100312581597</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>バス13分停歩1分</t>
+          <t>―徒歩6分</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬５</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：5500円礼金/敷金：2.75万円/-</t>
+          <t>賃料：5.5万円管理・共益費：-礼金/敷金：5.5万円/5.5万円</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>築13年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：17.57m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1083,26 +1083,26 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>100312619278</v>
+        <v>100312581486</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区古市場１</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：-礼金/敷金：5.5万円/5.5万円</t>
+          <t>賃料：5.5万円管理・共益費：1000円礼金/敷金：5.5万円/5.5万円</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>専有面積：17.57m2間取り：ワンルーム</t>
+          <t>専有面積：17.57m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1121,36 +1121,36 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>100312586322</v>
+        <v>100312559075</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小倉１</t>
+          <t>神奈川県川崎市幸区北加瀬３</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：5.5万円(5.5万円)/5.5万円</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>東急東横線/元住吉</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>築2年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>専有面積：11.4m2間取り：ワンルーム</t>
+          <t>専有面積：16.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1159,36 +1159,36 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>100312581597</v>
+        <v>100312546564</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>―徒歩6分</t>
+          <t>―徒歩17分</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：-礼金/敷金：5.5万円/5.5万円</t>
+          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>専有面積：17.57m2間取り：ワンルーム</t>
+          <t>専有面積：14.41m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1197,21 +1197,21 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>100312581486</v>
+        <v>100312653107</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場１</t>
+          <t>神奈川県川崎市幸区古市場２</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：1000円礼金/敷金：5.5万円/5.5万円</t>
+          <t>賃料：5.7万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>専有面積：17.57m2間取り：1K</t>
+          <t>専有面積：17.11m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1235,36 +1235,36 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>100312559075</v>
+        <v>100312697764</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬３</t>
+          <t>神奈川県川崎市幸区戸手本町１</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：5.5万円(5.5万円)/5.5万円</t>
+          <t>賃料：5.8万円管理・共益費：2000円礼金/敷金：-/5.8万円</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>東急東横線/元住吉</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>築31年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>専有面積：16.5m2間取り：1K</t>
+          <t>専有面積：17.01m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1273,36 +1273,36 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>100312546564</v>
+        <v>100312697728</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>―徒歩17分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区戸手本町１</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：5.8万円管理・共益費：2000円礼金/敷金：-/5.8万円</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>専有面積：14.41m2間取り：ワンルーム</t>
+          <t>専有面積：17.01m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1311,36 +1311,36 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>100312653107</v>
+        <v>100312672069</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>バス8分停歩6分</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場２</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>賃料：5.7万円管理・共益費：5000円礼金/敷金：-/-</t>
+          <t>賃料：5.8万円管理・共益費：5500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築22年</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>専有面積：17.11m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1349,11 +1349,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>100312672069</v>
+        <v>100308073005</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>バス8分停歩6分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1363,22 +1363,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>賃料：5.8万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：5.8万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>築22年</t>
+          <t>築9年</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：15.49m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1387,21 +1387,21 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>100308073005</v>
+        <v>100312697733</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>賃料：5.8万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.9万円管理・共益費：-礼金/敷金：5.9万円/5.9万円</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築34年</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>専有面積：15.49m2間取り：ワンルーム</t>
+          <t>専有面積：21m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1425,21 +1425,21 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>100292855073</v>
+        <v>100312639966</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩24分</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区南加瀬２</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>賃料：5.8万円管理・共益費：2000円礼金/敷金：-/-</t>
+          <t>賃料：5.9万円管理・共益費：5500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>築13年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>専有面積：17.39m2間取り：1K</t>
+          <t>専有面積：20.81m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1463,36 +1463,36 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>100312639966</v>
+        <v>100312586325</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>―徒歩24分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬２</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>賃料：5.9万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>専有面積：20.81m2間取り：1K</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1501,11 +1501,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>100312586325</v>
+        <v>100312586314</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1539,36 +1539,36 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>100312586314</v>
+        <v>100312672060</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町１</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：5500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>湘南新宿ライン宇須/新川崎</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>新築</t>
+          <t>築22年</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>専有面積：14m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1577,36 +1577,36 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>100312672060</v>
+        <v>100312592413</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区塚越１</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>湘南新宿ライン宇須/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>築22年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：11.11m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1615,16 +1615,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>100312592413</v>
+        <v>100312586315</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越１</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1634,17 +1634,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>専有面積：11.11m2間取り：ワンルーム</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>100312586315</v>
+        <v>100312586330</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：6.1万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1691,36 +1691,36 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>100312586330</v>
+        <v>100288491323</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>バス9分停歩3分</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町１</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>賃料：6.1万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：6.1万円管理・共益費：5500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>新築</t>
+          <t>築28年</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>専有面積：14m2間取り：ワンルーム</t>
+          <t>専有面積：20.12m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2717,21 +2717,21 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>100312683387</v>
+        <v>100308371637</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区小向西町２</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6.7万円管理・共益費：3000円礼金/敷金：6.7万円/6.7万円</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築41年</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>専有面積：21.2m2間取り：1K</t>
+          <t>専有面積：28.35m2間取り：2K</t>
         </is>
       </c>
     </row>
@@ -2755,36 +2755,36 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>100312676913</v>
+        <v>100312713790</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>―徒歩21分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町２</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：4000円礼金/敷金：3.4万円/-</t>
+          <t>賃料：6.8万円管理・共益費：9500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>築11年</t>
+          <t>築10年</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>専有面積：24.4m2間取り：1K</t>
+          <t>専有面積：20.66m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2793,21 +2793,21 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>100312674039</v>
+        <v>100312683387</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>―徒歩21分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町２</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：4000円礼金/敷金：3.4万円/-</t>
+          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>築11年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>専有面積：24.4m2間取り：1K</t>
+          <t>専有面積：21.2m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2831,21 +2831,21 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>100312666585</v>
+        <v>100312676913</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩21分</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区小向西町２</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6.8万円管理・共益費：4000円礼金/敷金：3.4万円/-</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2855,12 +2855,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築11年</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>専有面積：21.2m2間取り：1K</t>
+          <t>専有面積：24.4m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2869,36 +2869,36 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>100312581344</v>
+        <v>100312674039</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩21分</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町２</t>
+          <t>神奈川県川崎市幸区小向西町２</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：1000円礼金/敷金：-/6.8万円</t>
+          <t>賃料：6.8万円管理・共益費：4000円礼金/敷金：3.4万円/-</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>築50年</t>
+          <t>築11年</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>専有面積：26.44m2間取り：1DK</t>
+          <t>専有面積：24.4m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2907,36 +2907,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>100312559267</v>
+        <v>100312666585</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：21.2m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2945,36 +2945,36 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>100312550641</v>
+        <v>100312581344</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区神明町２</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.8万円管理・共益費：1000円礼金/敷金：-/6.8万円</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築50年</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：26.44m2間取り：1DK</t>
         </is>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>100312546605</v>
+        <v>100312559267</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>100312543154</v>
+        <v>100312550641</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>100312542947</v>
+        <v>100312546605</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>100312542356</v>
+        <v>100312543154</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>100312542321</v>
+        <v>100312542947</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3173,36 +3173,36 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>100294754776</v>
+        <v>100312542356</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町１</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/6.8万円</t>
+          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>築33年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>専有面積：25.17m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3211,36 +3211,36 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>100312680574</v>
+        <v>100312542321</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区柳町</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>賃料：6.9万円管理・共益費：15000円礼金/敷金：6.9万円/-</t>
+          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>築10年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>専有面積：20.77m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>100312663820</v>
+        <v>100294754776</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3258,12 +3258,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区柳町</t>
+          <t>神奈川県川崎市幸区中幸町１</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>賃料：6.9万円管理・共益費：10000円礼金/敷金：6.9万円/-</t>
+          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/6.8万円</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3273,12 +3273,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>築10年</t>
+          <t>築33年</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>専有面積：23.7m2間取り：1K</t>
+          <t>専有面積：25.17m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3287,21 +3287,21 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>100283745289</v>
+        <v>100312680574</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町２</t>
+          <t>神奈川県川崎市幸区柳町</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>賃料：6.9万円管理・共益費：6000円礼金/敷金：-/-</t>
+          <t>賃料：6.9万円管理・共益費：15000円礼金/敷金：6.9万円/-</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3311,12 +3311,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>築18年</t>
+          <t>築10年</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>専有面積：19.68m2間取り：1K</t>
+          <t>専有面積：20.77m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3325,21 +3325,21 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>100312682894</v>
+        <v>100312663820</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区大宮町</t>
+          <t>神奈川県川崎市幸区柳町</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/-</t>
+          <t>賃料：6.9万円管理・共益費：10000円礼金/敷金：6.9万円/-</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3349,12 +3349,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>築20年</t>
+          <t>築10年</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>専有面積：23.56m2間取り：1K</t>
+          <t>専有面積：23.7m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3363,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>100312676170</v>
+        <v>100283745289</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -3372,12 +3372,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区大宮町</t>
+          <t>神奈川県川崎市幸区南幸町２</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/-</t>
+          <t>賃料：6.9万円管理・共益費：6000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3387,12 +3387,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>築20年</t>
+          <t>築18年</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>専有面積：23.56m2間取り：1K</t>
+          <t>専有面積：19.68m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>100312667127</v>
+        <v>100312709920</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3439,36 +3439,36 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>100312592411</v>
+        <v>100312682894</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区都町</t>
+          <t>神奈川県川崎市幸区大宮町</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：1000円礼金/敷金：7万円/-</t>
+          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/-</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>築20年</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>専有面積：23.19m2間取り：1K</t>
+          <t>専有面積：23.56m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3477,36 +3477,36 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>100312559212</v>
+        <v>100312676170</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区大宮町</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
+          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/-</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築20年</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>専有面積：25.42m2間取り：ワンルーム</t>
+          <t>専有面積：23.56m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3515,36 +3515,36 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>100312680619</v>
+        <v>100312667127</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>―徒歩3分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区中幸町１</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>賃料：7.05万円管理・共益費：15000円礼金/敷金：7.05万円/-</t>
+          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>専有面積：21.3m2間取り：1K</t>
+          <t>専有面積：18.29m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3553,36 +3553,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>100312686614</v>
+        <v>100312592411</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区都町</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：9500円礼金/敷金：-(7.1万円)/-(7.1万円)</t>
+          <t>賃料：7万円管理・共益費：1000円礼金/敷金：7万円/-</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>築10年</t>
+          <t>築23年</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>専有面積：20.66m2間取り：1K</t>
+          <t>専有面積：23.19m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3591,36 +3591,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>100312619750</v>
+        <v>100312559212</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>専有面積：20.13m2間取り：1K</t>
+          <t>専有面積：25.42m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -3629,36 +3629,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>100312597093</v>
+        <v>100312680619</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩3分</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：7.05万円管理・共益費：15000円礼金/敷金：7.05万円/-</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>専有面積：20.13m2間取り：1K</t>
+          <t>専有面積：21.3m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3667,36 +3667,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>100312586328</v>
+        <v>100312686614</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：7.1万円管理・共益費：9500円礼金/敷金：-(7.1万円)/-(7.1万円)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築10年</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>専有面積：20.13m2間取り：1K</t>
+          <t>専有面積：20.66m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>100312586177</v>
+        <v>100312619750</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3743,21 +3743,21 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>100312581503</v>
+        <v>100312597093</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区下平間</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：5000円礼金/敷金：7.1万円/7.1万円</t>
+          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3767,12 +3767,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>築14年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>専有面積：22.36m2間取り：1K</t>
+          <t>専有面積：20.13m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3781,7 +3781,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>100312581449</v>
+        <v>100312586328</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3819,36 +3819,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>100312625633</v>
+        <v>100312586177</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>―徒歩3分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>賃料：7.2万円管理・共益費：15000円礼金/敷金：7.2万円/-</t>
+          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>専有面積：21.3m2間取り：1K</t>
+          <t>専有面積：20.13m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3857,36 +3857,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>100312592558</v>
+        <v>100312581449</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町４</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>賃料：7.2万円管理・共益費：10000円礼金/敷金：7.2万円/-</t>
+          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>専有面積：20.2m2間取り：1K</t>
+          <t>専有面積：20.13m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3895,36 +3895,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>100312680835</v>
+        <v>100312625633</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩3分</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町１</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>賃料：7.3万円管理・共益費：8000円礼金/敷金：7.3万円/-</t>
+          <t>賃料：7.2万円管理・共益費：15000円礼金/敷金：7.2万円/-</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>専有面積：20.61m2間取り：1K</t>
+          <t>専有面積：21.3m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3933,36 +3933,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>100312543125</v>
+        <v>100312592558</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>―徒歩21分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区東古市場</t>
+          <t>神奈川県川崎市幸区中幸町４</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>賃料：7.3万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：7.2万円管理・共益費：10000円礼金/敷金：7.2万円/-</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>専有面積：21.32m2間取り：1K</t>
+          <t>専有面積：20.2m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3971,36 +3971,36 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>100312543052</v>
+        <v>100312680835</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>―徒歩26分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区東古市場</t>
+          <t>神奈川県川崎市幸区南幸町１</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>賃料：7.3万円管理・共益費：5500円礼金/敷金：7.3万円/-</t>
+          <t>賃料：7.3万円管理・共益費：8000円礼金/敷金：7.3万円/-</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築9年</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>専有面積：21.32m2間取り：1K</t>
+          <t>専有面積：20.61m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4009,36 +4009,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>100312686650</v>
+        <v>100312543125</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩21分</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区東古市場</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
+          <t>賃料：7.3万円管理・共益費：5500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>築11年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>専有面積：29.81m2間取り：1DK</t>
+          <t>専有面積：21.32m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4047,36 +4047,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>100309626655</v>
+        <v>100312543052</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩26分</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場２</t>
+          <t>神奈川県川崎市幸区東古市場</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：7.4万円(7.4万円)/7.4万円</t>
+          <t>賃料：7.3万円管理・共益費：5500円礼金/敷金：7.3万円/-</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>築14年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>専有面積：23.76m2間取り：1K</t>
+          <t>専有面積：21.32m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4085,36 +4085,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>100308785392</v>
+        <v>100312686650</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>―徒歩11分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町２</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：4000円礼金/敷金：-/-</t>
+          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築11年</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>専有面積：21.26m2間取り：1K</t>
+          <t>専有面積：29.81m2間取り：1DK</t>
         </is>
       </c>
     </row>
@@ -4123,36 +4123,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>100312680863</v>
+        <v>100309626655</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町１</t>
+          <t>神奈川県川崎市幸区古市場２</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：15000円礼金/敷金：-/-</t>
+          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：7.4万円(7.4万円)/7.4万円</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築14年</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>専有面積：20.85m2間取り：1K</t>
+          <t>専有面積：23.76m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4161,36 +4161,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>100312670912</v>
+        <v>100308785392</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩11分</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町２</t>
+          <t>神奈川県川崎市幸区南幸町２</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：3000円礼金/敷金：7.5万円/7.5万円</t>
+          <t>賃料：7.4万円管理・共益費：4000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>専有面積：27.58m2間取り：1DK</t>
+          <t>専有面積：21.26m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4199,11 +4199,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>100312664084</v>
+        <v>100312709958</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：15000円礼金/敷金：-/-</t>
+          <t>賃料：7.5万円管理・共益費：8000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築9年</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>専有面積：20.85m2間取り：1K</t>
+          <t>専有面積：20.59m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4237,36 +4237,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>100312664000</v>
+        <v>100312701271</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町１</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：8000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>専有面積：20.59m2間取り：1K</t>
+          <t>専有面積：25.11m2間取り：1K</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -475,36 +475,36 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>100312653097</v>
+        <v>100312772418</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>―徒歩11分</t>
+          <t>―徒歩23分</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古川町</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>賃料：4.35万円管理・共益費：7500円礼金/敷金：-/4.35万円</t>
+          <t>賃料：3.8万円管理・共益費：5500円礼金/敷金：-/4万円</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>専有面積：16.64m2間取り：ワンルーム</t>
+          <t>専有面積：16.5m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -513,36 +513,36 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>100312586331</v>
+        <v>100312724962</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場１</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>賃料：4.8万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：4万円管理・共益費：4000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>専有面積：12.37m2間取り：ワンルーム</t>
+          <t>専有面積：16.59m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -551,36 +551,36 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>100312586320</v>
+        <v>100312825867</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場１</t>
+          <t>神奈川県川崎市幸区戸手本町２</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>賃料：4.8万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：4.4万円管理・共益費：6000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築36年</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>専有面積：12.37m2間取り：ワンルーム</t>
+          <t>専有面積：16.51m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -589,21 +589,21 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>100312586318</v>
+        <v>100312825763</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場１</t>
+          <t>神奈川県川崎市幸区下平間</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>賃料：4.8万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：4.5万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -613,12 +613,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築30年</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>専有面積：12.37m2間取り：ワンルーム</t>
+          <t>専有面積：18.94m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -627,36 +627,36 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>100312581351</v>
+        <v>100312769256</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町２</t>
+          <t>神奈川県川崎市幸区小倉２</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>賃料：4.8万円管理・共益費：-礼金/敷金：4.8万円/4.8万円</t>
+          <t>賃料：4.5万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築34年</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>専有面積：13.35m2間取り：1K</t>
+          <t>専有面積：21.89m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -703,36 +703,36 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100312586324</v>
+        <v>100312825767</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場１</t>
+          <t>神奈川県川崎市幸区戸手本町２</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>賃料：5.05万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築36年</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>専有面積：12.37m2間取り：ワンルーム</t>
+          <t>専有面積：16.51m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -741,36 +741,36 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100312630787</v>
+        <v>100312815181</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>賃料：5.2万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：5万円管理・共益費：2000円礼金/敷金：2.5万円/-</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>築25年</t>
+          <t>築37年</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100308371367</v>
+        <v>100312775203</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -788,27 +788,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区幸町１</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>賃料：5.37万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：5万円管理・共益費：2000円礼金/敷金：2.5万円/-</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築37年</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>専有面積：16.45m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -817,31 +817,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100312639977</v>
+        <v>100312774764</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>バス13分停歩1分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬５</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>賃料：5.4万円管理・共益費：5500円礼金/敷金：2.7万円/-</t>
+          <t>賃料：5万円管理・共益費：2000円礼金/敷金：2.5万円/-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>築13年</t>
+          <t>築37年</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -855,31 +855,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>100312552677</v>
+        <v>100311123930</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>バス13分停歩1分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬５</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>賃料：5.4万円管理・共益費：5500円礼金/敷金：2.7万円/-</t>
+          <t>賃料：5万円管理・共益費：2000円礼金/敷金：2.5万円/-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>築13年</t>
+          <t>築37年</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -893,36 +893,36 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>100312666656</v>
+        <v>100311006973</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>―徒歩23分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向町</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：5万円管理・共益費：2000円礼金/敷金：2.5万円/-</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>京急本線/京急川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築37年</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>専有面積：17.6m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -931,31 +931,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>100312639967</v>
+        <v>100310969272</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>バス13分停歩1分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬５</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：5500円礼金/敷金：2.75万円/-</t>
+          <t>賃料：5万円管理・共益費：2000円礼金/敷金：2.5万円/-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>築13年</t>
+          <t>築37年</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -969,21 +969,21 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>100312619278</v>
+        <v>100312748102</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区南幸町１</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：-礼金/敷金：5.5万円/5.5万円</t>
+          <t>賃料：5.2万円管理・共益費：2000円礼金/敷金：-/5.2万円</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築29年</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>専有面積：17.57m2間取り：ワンルーム</t>
+          <t>専有面積：16.86m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1007,36 +1007,36 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>100312586322</v>
+        <v>100312825922</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩6分</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小倉１</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.3万円管理・共益費：6000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>築2年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>専有面積：11.4m2間取り：ワンルーム</t>
+          <t>専有面積：16.35m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1045,26 +1045,26 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>100312581597</v>
+        <v>100312772481</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>―徒歩6分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：-礼金/敷金：5.5万円/5.5万円</t>
+          <t>賃料：5.3万円管理・共益費：10500円礼金/敷金：5.3万円/-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>専有面積：17.57m2間取り：ワンルーム</t>
+          <t>専有面積：16.68m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1083,21 +1083,21 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>100312581486</v>
+        <v>100312814799</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場１</t>
+          <t>神奈川県川崎市幸区塚越１</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：1000円礼金/敷金：5.5万円/5.5万円</t>
+          <t>賃料：5.35万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1107,12 +1107,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>専有面積：17.57m2間取り：1K</t>
+          <t>専有面積：11.1m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1121,36 +1121,36 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>100312559075</v>
+        <v>100312815891</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬３</t>
+          <t>神奈川県川崎市幸区塚越１</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：5.5万円(5.5万円)/5.5万円</t>
+          <t>賃料：5.4万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>東急東横線/元住吉</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>築31年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>専有面積：16.5m2間取り：1K</t>
+          <t>専有面積：11.1m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1159,36 +1159,36 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>100312546564</v>
+        <v>100312821439</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>―徒歩17分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区北加瀬３</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：5.5万円(5.5万円)/5.5万円</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>東急東横線/元住吉</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築30年</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>専有面積：14.41m2間取り：ワンルーム</t>
+          <t>専有面積：17m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1197,36 +1197,36 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>100312653107</v>
+        <v>100312776244</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩8分</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場２</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>賃料：5.7万円管理・共益費：5000円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：-礼金/敷金：5.5万円/5.5万円</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>専有面積：17.11m2間取り：1K</t>
+          <t>専有面積：17.57m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>100312697764</v>
+        <v>100312772455</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1244,27 +1244,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手本町１</t>
+          <t>神奈川県川崎市幸区矢上</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>賃料：5.8万円管理・共益費：2000円礼金/敷金：-/5.8万円</t>
+          <t>賃料：5.5万円管理・共益費：-礼金/敷金：-/5.5万円</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>専有面積：17.01m2間取り：1K</t>
+          <t>専有面積：19.4m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1273,36 +1273,36 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>100312697728</v>
+        <v>100312764908</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手本町１</t>
+          <t>神奈川県川崎市幸区矢上</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>賃料：5.8万円管理・共益費：2000円礼金/敷金：-/5.8万円</t>
+          <t>賃料：5.5万円管理・共益費：-礼金/敷金：-/5.5万円</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>専有面積：17.01m2間取り：1K</t>
+          <t>専有面積：16.18m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1311,36 +1311,36 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>100312672069</v>
+        <v>100312783215</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>バス8分停歩6分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区北加瀬１</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>賃料：5.8万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：5.7万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>築22年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：12.61m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1349,36 +1349,36 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>100308073005</v>
+        <v>100312748103</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区南幸町１</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>賃料：5.8万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.7万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築33年</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>専有面積：15.49m2間取り：ワンルーム</t>
+          <t>専有面積：14.58m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>100312697733</v>
+        <v>100312697764</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区戸手本町１</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>賃料：5.9万円管理・共益費：-礼金/敷金：5.9万円/5.9万円</t>
+          <t>賃料：5.8万円管理・共益費：2000円礼金/敷金：-/5.8万円</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>築34年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>専有面積：21m2間取り：ワンルーム</t>
+          <t>専有面積：17.01m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1425,36 +1425,36 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>100312639966</v>
+        <v>100312697728</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>―徒歩24分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬２</t>
+          <t>神奈川県川崎市幸区戸手本町１</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>賃料：5.9万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：5.8万円管理・共益費：2000円礼金/敷金：-/5.8万円</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>専有面積：20.81m2間取り：1K</t>
+          <t>専有面積：17.01m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1463,36 +1463,36 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>100312586325</v>
+        <v>100312796558</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町１</t>
+          <t>神奈川県川崎市幸区南幸町１</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.9万円管理・共益費：3000円礼金/敷金：-/5.9万円</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>新築</t>
+          <t>築33年</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>専有面積：14m2間取り：ワンルーム</t>
+          <t>専有面積：19.2m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1501,36 +1501,36 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>100312586314</v>
+        <v>100312697733</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町１</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.9万円管理・共益費：-礼金/敷金：5.9万円/5.9万円</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>新築</t>
+          <t>築34年</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>専有面積：14m2間取り：ワンルーム</t>
+          <t>専有面積：21m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1539,36 +1539,36 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>100312672060</v>
+        <v>100310248546</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区南幸町２</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：5.9万円管理・共益費：6000円礼金/敷金：-/5.9万円</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>湘南新宿ライン宇須/新川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>築22年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：21.15m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>100312592413</v>
+        <v>100312778846</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1615,36 +1615,36 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>100312586315</v>
+        <v>100312740972</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町１</t>
+          <t>神奈川県川崎市幸区古市場１</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：5000円礼金/敷金：6万円/-</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>新築</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>専有面積：14m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1653,36 +1653,36 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>100312586330</v>
+        <v>100217609521</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町１</t>
+          <t>神奈川県川崎市幸区南幸町２</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>賃料：6.1万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>新築</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>専有面積：14m2間取り：ワンルーム</t>
+          <t>専有面積：15.79m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1729,36 +1729,36 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>100312653111</v>
+        <v>100312820368</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小倉３</t>
+          <t>神奈川県川崎市幸区南幸町１</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>賃料：6.15万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：6.2万円/6.2万円</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>築13年</t>
+          <t>築25年</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>専有面積：13.75m2間取り：ワンルーム</t>
+          <t>専有面積：18.4m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1767,16 +1767,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>100312664076</v>
+        <v>100312818178</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町４</t>
+          <t>神奈川県川崎市幸区南幸町１</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1786,17 +1786,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>築37年</t>
+          <t>築25年</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>専有面積：23.25m2間取り：ワンルーム</t>
+          <t>専有面積：18.4m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1805,36 +1805,36 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>100312663897</v>
+        <v>100312725249</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩4分</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町４</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：6.2万円/6.2万円</t>
+          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>築37年</t>
+          <t>築20年</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>専有面積：23.25m2間取り：ワンルーム</t>
+          <t>専有面積：18.55m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1843,36 +1843,36 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>100312663884</v>
+        <v>100312725215</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町４</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：6.2万円/6.2万円</t>
+          <t>賃料：6.2万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>築37年</t>
+          <t>築9年</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>専有面積：23.25m2間取り：ワンルーム</t>
+          <t>専有面積：15.49m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1881,36 +1881,36 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>100312586312</v>
+        <v>100290902267</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩16分</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町１</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>新築</t>
+          <t>築22年</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>専有面積：14m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1919,21 +1919,21 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>100312559537</v>
+        <v>100312725190</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6.3万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>築9年</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：15.49m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1957,11 +1957,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>100312559118</v>
+        <v>100312817368</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>築20年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>専有面積：18.55m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1995,36 +1995,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>100312546606</v>
+        <v>100312817343</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2033,36 +2033,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>100312543155</v>
+        <v>100312817337</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2071,36 +2071,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>100312542631</v>
+        <v>100312817304</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2109,36 +2109,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>100312542322</v>
+        <v>100312772762</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：6.2万円/-</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2147,21 +2147,21 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>100312559175</v>
+        <v>100312772750</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>―徒歩22分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町２</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>賃料：6.3万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2171,12 +2171,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>専有面積：18.81m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2185,36 +2185,36 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>100312546424</v>
+        <v>100312772738</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬１</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>賃料：6.3万円管理・共益費：5500円礼金/敷金：6.3万円/-</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>築14年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2223,21 +2223,21 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>100312686599</v>
+        <v>100312772719</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越４</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>賃料：6.35万円管理・共益費：1500円礼金/敷金：6.35万円(6.35万円)/6.35万円</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2247,12 +2247,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>築14年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>専有面積：24.04m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2261,36 +2261,36 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>100312633802</v>
+        <v>100312769593</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬３</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>賃料：6.4万円管理・共益費：12000円礼金/敷金：-/-</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>東急東横線/元住吉</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>専有面積：21.55m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2299,36 +2299,36 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>100275799624</v>
+        <v>100312769585</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>バス13分停歩3分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手１</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>賃料：6.4万円管理・共益費：5500円礼金/敷金：6.4万円/-</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>100312683404</v>
+        <v>100312769575</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>100312683397</v>
+        <v>100312769559</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>100312683390</v>
+        <v>100312767843</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>100312683382</v>
+        <v>100312767819</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>100312666576</v>
+        <v>100312767815</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>100312666568</v>
+        <v>100312767801</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>100312666563</v>
+        <v>100312733338</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>100312666486</v>
+        <v>100312733328</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2641,36 +2641,36 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>100306043912</v>
+        <v>100312733316</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬３</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：6.5万円/6.5万円</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>東急東横線/元住吉</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>築36年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>専有面積：28m2間取り：2K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2679,36 +2679,36 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>100312672056</v>
+        <v>100312733303</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>賃料：6.7万円管理・共益費：5500円礼金/敷金：6.7万円/-</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2717,21 +2717,21 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>100308371637</v>
+        <v>100312725204</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町２</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>賃料：6.7万円管理・共益費：3000円礼金/敷金：6.7万円/6.7万円</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>築41年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>専有面積：28.35m2間取り：2K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2755,36 +2755,36 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>100312713790</v>
+        <v>100312725188</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：9500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>築10年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>専有面積：20.66m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2793,36 +2793,36 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>100312683387</v>
+        <v>100312725076</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩8分</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南幸町２</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6.5万円管理・共益費：6000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築17年</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>専有面積：21.2m2間取り：1K</t>
+          <t>専有面積：19.68m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2831,21 +2831,21 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>100312676913</v>
+        <v>100312724946</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>―徒歩21分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町２</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：4000円礼金/敷金：3.4万円/-</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2855,12 +2855,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>築11年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>専有面積：24.4m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2869,21 +2869,21 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>100312674039</v>
+        <v>100312724941</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>―徒歩21分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小向西町２</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：4000円礼金/敷金：3.4万円/-</t>
+          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>築11年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>専有面積：24.4m2間取り：1K</t>
+          <t>専有面積：19.5m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>100312666585</v>
+        <v>100312780755</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2916,27 +2916,27 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6.7万円管理・共益費：4000円礼金/敷金：-/3.35万円</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>専有面積：21.2m2間取り：1K</t>
+          <t>専有面積：19.44m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -2945,36 +2945,36 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>100312581344</v>
+        <v>100312724940</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩8分</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町２</t>
+          <t>神奈川県川崎市幸区南幸町２</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：1000円礼金/敷金：-/6.8万円</t>
+          <t>賃料：6.7万円管理・共益費：6000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>築50年</t>
+          <t>築17年</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>専有面積：26.44m2間取り：1DK</t>
+          <t>専有面積：19.68m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2983,36 +2983,36 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>100312559267</v>
+        <v>100312724913</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.7万円管理・共益費：4000円礼金/敷金：6.7万円/3.35万円</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：19.44m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>100312550641</v>
+        <v>100308371637</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3030,27 +3030,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区小向西町２</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.7万円管理・共益費：3000円礼金/敷金：6.7万円/6.7万円</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築41年</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：28.35m2間取り：2K</t>
         </is>
       </c>
     </row>
@@ -3059,26 +3059,26 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>100312546605</v>
+        <v>100288899576</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>バス13分停歩3分</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区戸手１</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.7万円管理・共益費：5500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3097,26 +3097,26 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>100312543154</v>
+        <v>100275045896</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>バス13分停歩3分</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区戸手１</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.7万円管理・共益費：5500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3135,26 +3135,26 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>100312542947</v>
+        <v>100275003603</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>バス13分停歩3分</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区戸手１</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.7万円管理・共益費：5500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3173,36 +3173,36 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>100312542356</v>
+        <v>100312817309</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：21.2m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3211,36 +3211,36 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>100312542321</v>
+        <v>100312815821</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩11分</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：5500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.8万円管理・共益費：9500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築10年</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：20.6m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3249,36 +3249,36 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>100294754776</v>
+        <v>100312772785</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町１</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/6.8万円</t>
+          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>築33年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>専有面積：25.17m2間取り：1K</t>
+          <t>専有面積：21.2m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3287,36 +3287,36 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>100312680574</v>
+        <v>100312769570</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区柳町</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>賃料：6.9万円管理・共益費：15000円礼金/敷金：6.9万円/-</t>
+          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>築10年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>専有面積：20.77m2間取り：1K</t>
+          <t>専有面積：21.2m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3325,36 +3325,36 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>100312663820</v>
+        <v>100312767768</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区柳町</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>賃料：6.9万円管理・共益費：10000円礼金/敷金：6.9万円/-</t>
+          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>築10年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>専有面積：23.7m2間取り：1K</t>
+          <t>専有面積：21.2m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3363,36 +3363,36 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>100283745289</v>
+        <v>100312740997</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町２</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>賃料：6.9万円管理・共益費：6000円礼金/敷金：-/-</t>
+          <t>賃料：6.8万円管理・共益費：9500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>築18年</t>
+          <t>築10年</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>専有面積：19.68m2間取り：1K</t>
+          <t>専有面積：20.66m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3401,36 +3401,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>100312709920</v>
+        <v>100312733326</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町１</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
+          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>専有面積：18.29m2間取り：1K</t>
+          <t>専有面積：21.2m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3439,36 +3439,36 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>100312682894</v>
+        <v>100312725222</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区大宮町</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/-</t>
+          <t>賃料：6.8万円管理・共益費：4000円礼金/敷金：6.8万円/3.4万円</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>築20年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>専有面積：23.56m2間取り：1K</t>
+          <t>専有面積：19.44m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3477,36 +3477,36 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>100312676170</v>
+        <v>100312724867</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区大宮町</t>
+          <t>神奈川県川崎市幸区塚越３</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/-</t>
+          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>築20年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>専有面積：23.56m2間取り：1K</t>
+          <t>専有面積：21.2m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3515,36 +3515,36 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>100312667127</v>
+        <v>100312713790</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町１</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
+          <t>賃料：6.8万円管理・共益費：9500円礼金/敷金：6.8万円/-</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築10年</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>専有面積：18.29m2間取り：1K</t>
+          <t>専有面積：20.66m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3553,36 +3553,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>100312592411</v>
+        <v>100312809517</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩22分</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区都町</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：1000円礼金/敷金：7万円/-</t>
+          <t>賃料：6.9万円管理・共益費：5000円礼金/敷金：6.9万円/-</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>築23年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>専有面積：23.19m2間取り：1K</t>
+          <t>専有面積：22.52m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3591,36 +3591,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>100312559212</v>
+        <v>100312809348</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩22分</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：10000円礼金/敷金：7万円/7万円</t>
+          <t>賃料：6.9万円管理・共益費：5000円礼金/敷金：6.9万円/-</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>専有面積：25.42m2間取り：ワンルーム</t>
+          <t>専有面積：22.52m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3629,36 +3629,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>100312680619</v>
+        <v>100312809307</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>―徒歩3分</t>
+          <t>―徒歩22分</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>賃料：7.05万円管理・共益費：15000円礼金/敷金：7.05万円/-</t>
+          <t>賃料：6.9万円管理・共益費：5000円礼金/敷金：6.9万円/-</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>専有面積：21.3m2間取り：1K</t>
+          <t>専有面積：22.52m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3667,36 +3667,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>100312686614</v>
+        <v>100312809089</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩22分</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：9500円礼金/敷金：-(7.1万円)/-(7.1万円)</t>
+          <t>賃料：6.9万円管理・共益費：5000円礼金/敷金：6.9万円/-</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>築10年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>専有面積：20.66m2間取り：1K</t>
+          <t>専有面積：22.52m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3705,36 +3705,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>100312619750</v>
+        <v>100312808800</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩22分</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：6.9万円管理・共益費：5000円礼金/敷金：6.9万円/-</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>専有面積：20.13m2間取り：1K</t>
+          <t>専有面積：22.52m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3743,36 +3743,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>100312597093</v>
+        <v>100312808605</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩22分</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：6.9万円管理・共益費：5000円礼金/敷金：6.9万円/-</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>専有面積：20.13m2間取り：1K</t>
+          <t>専有面積：22.52m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3781,36 +3781,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>100312586328</v>
+        <v>100312725106</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩8分</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区南幸町２</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：6.9万円管理・共益費：6000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築17年</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>専有面積：20.13m2間取り：1K</t>
+          <t>専有面積：19.68m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3819,36 +3819,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>100312586177</v>
+        <v>100312825984</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区南幸町１</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：7万円管理・共益費：15000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>専有面積：20.13m2間取り：1K</t>
+          <t>専有面積：20.85m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3857,26 +3857,26 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>100312581449</v>
+        <v>100312784370</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区中幸町１</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>専有面積：20.13m2間取り：1K</t>
+          <t>専有面積：18.29m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3895,36 +3895,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>100312625633</v>
+        <v>100312760992</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>―徒歩3分</t>
+          <t>バス13分停歩3分</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区小倉４</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>賃料：7.2万円管理・共益費：15000円礼金/敷金：7.2万円/-</t>
+          <t>賃料：7万円管理・共益費：-礼金/敷金：7万円/7万円</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築47年</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>専有面積：21.3m2間取り：1K</t>
+          <t>専有面積：40.45m2間取り：2DK</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>100312592558</v>
+        <v>100312746088</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3942,12 +3942,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町４</t>
+          <t>神奈川県川崎市幸区中幸町１</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>賃料：7.2万円管理・共益費：10000円礼金/敷金：7.2万円/-</t>
+          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3957,12 +3957,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>専有面積：20.2m2間取り：1K</t>
+          <t>専有面積：18.29m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3971,21 +3971,21 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>100312680835</v>
+        <v>100312725070</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町１</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>賃料：7.3万円管理・共益費：8000円礼金/敷金：7.3万円/-</t>
+          <t>賃料：7万円管理・共益費：3000円礼金/敷金：7万円/3.5万円</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3995,12 +3995,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築18年</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>専有面積：20.61m2間取り：1K</t>
+          <t>専有面積：23m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4009,36 +4009,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>100312543125</v>
+        <v>100312709920</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>―徒歩21分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区東古市場</t>
+          <t>神奈川県川崎市幸区中幸町１</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>賃料：7.3万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>専有面積：21.32m2間取り：1K</t>
+          <t>専有面積：18.29m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4047,36 +4047,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>100312543052</v>
+        <v>100312825996</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>―徒歩26分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区東古市場</t>
+          <t>神奈川県川崎市幸区南幸町３</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>賃料：7.3万円管理・共益費：5500円礼金/敷金：7.3万円/-</t>
+          <t>賃料：7.05万円管理・共益費：15000円礼金/敷金：7.05万円/-</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>専有面積：21.32m2間取り：1K</t>
+          <t>専有面積：21.3m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4085,11 +4085,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>100312686650</v>
+        <v>100312811524</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4099,22 +4099,22 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：-/7.4万円</t>
+          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>築11年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>専有面積：29.81m2間取り：1DK</t>
+          <t>専有面積：20.13m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4123,36 +4123,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>100309626655</v>
+        <v>100312791381</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場２</t>
+          <t>神奈川県川崎市幸区古川町</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：3000円礼金/敷金：7.4万円(7.4万円)/7.4万円</t>
+          <t>賃料：7.1万円管理・共益費：4000円礼金/敷金：7.1万円/-</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>築14年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>専有面積：23.76m2間取り：1K</t>
+          <t>専有面積：22.35m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4161,36 +4161,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>100308785392</v>
+        <v>100312776713</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>―徒歩11分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町２</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>賃料：7.4万円管理・共益費：4000円礼金/敷金：-/-</t>
+          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>専有面積：21.26m2間取り：1K</t>
+          <t>専有面積：20.13m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4199,36 +4199,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>100312709958</v>
+        <v>100312776252</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町１</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：8000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>専有面積：20.59m2間取り：1K</t>
+          <t>専有面積：20.13m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4237,36 +4237,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>100312701271</v>
+        <v>100312772714</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>賃料：7.5万円管理・共益費：5000円礼金/敷金：7.5万円/-</t>
+          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築3年</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>専有面積：25.11m2間取り：1K</t>
+          <t>専有面積：20.13m2間取り：1K</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>100312772418</v>
+        <v>100314089639</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -489,7 +489,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>賃料：3.8万円管理・共益費：5500円礼金/敷金：-/4万円</t>
+          <t>賃料：3.65万円管理・共益費：5500円礼金/敷金：-/4万円</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -504,7 +504,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>専有面積：16.5m2間取り：ワンルーム</t>
+          <t>専有面積：16.54m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -513,36 +513,36 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>100312724962</v>
+        <v>100314065231</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩17分</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区戸手４</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>賃料：4万円管理・共益費：4000円礼金/敷金：-/-</t>
+          <t>賃料：3.8万円管理・共益費：2000円礼金/敷金：3.8万円/3.8万円</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>専有面積：16.59m2間取り：ワンルーム</t>
+          <t>専有面積：17.07m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -551,21 +551,21 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>100312825867</v>
+        <v>100314075509</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手本町２</t>
+          <t>神奈川県川崎市幸区紺屋町</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>賃料：4.4万円管理・共益費：6000円礼金/敷金：-/-</t>
+          <t>賃料：3.9万円管理・共益費：5000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -575,12 +575,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>築36年</t>
+          <t>築33年</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>専有面積：16.51m2間取り：1K</t>
+          <t>専有面積：15m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -589,36 +589,36 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>100312825763</v>
+        <v>100313919602</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区下平間</t>
+          <t>神奈川県川崎市幸区戸手本町２</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>賃料：4.5万円管理・共益費：2000円礼金/敷金：-/-</t>
+          <t>賃料：3.9万円管理・共益費：9000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>築30年</t>
+          <t>築36年</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>専有面積：18.94m2間取り：ワンルーム</t>
+          <t>専有面積：16.51m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -627,36 +627,36 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>100312769256</v>
+        <v>100314001427</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小倉２</t>
+          <t>神奈川県川崎市幸区幸町３</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>賃料：4.5万円管理・共益費：2000円礼金/敷金：-/-</t>
+          <t>賃料：4.5万円管理・共益費：-礼金/敷金：4.5万円/4.5万円</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>京急本線/京急川崎</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>築34年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>専有面積：21.89m2間取り：1K</t>
+          <t>専有面積：16m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -665,36 +665,36 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>100312700649</v>
+        <v>100313922695</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区下平間</t>
+          <t>神奈川県川崎市幸区幸町３</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>賃料：4.9万円管理・共益費：3000円礼金/敷金：2.45万円/-</t>
+          <t>賃料：4.5万円管理・共益費：-礼金/敷金：4.5万円/4.5万円</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>京急本線/京急川崎</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>築30年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>専有面積：16.03m2間取り：ワンルーム</t>
+          <t>専有面積：16m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -703,36 +703,36 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100312825767</v>
+        <v>100302290089</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>―徒歩5分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手本町２</t>
+          <t>神奈川県川崎市幸区小倉５</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>賃料：5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：4.6万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>築36年</t>
+          <t>築7年</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>専有面積：16.51m2間取り：1K</t>
+          <t>専有面積：12.01m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -741,36 +741,36 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100312815181</v>
+        <v>100314087226</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区古市場１</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>賃料：5万円管理・共益費：2000円礼金/敷金：2.5万円/-</t>
+          <t>賃料：4.8万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>築37年</t>
+          <t>築16年</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：12.37m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>100312775203</v>
+        <v>100314075368</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -817,36 +817,36 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100312774764</v>
+        <v>100314001408</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区幸町３</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>賃料：5万円管理・共益費：2000円礼金/敷金：2.5万円/-</t>
+          <t>賃料：5万円管理・共益費：3000円礼金/敷金：5万円/5万円</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>京急本線/京急川崎</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>築37年</t>
+          <t>築35年</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：18m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -855,36 +855,36 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>100311123930</v>
+        <v>100313952215</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区小倉５</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>賃料：5万円管理・共益費：2000円礼金/敷金：2.5万円/-</t>
+          <t>賃料：5万円管理・共益費：4500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>築37年</t>
+          <t>築7年</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：11.7m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -893,36 +893,36 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>100311006973</v>
+        <v>100275727630</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区小倉３</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>賃料：5万円管理・共益費：2000円礼金/敷金：2.5万円/-</t>
+          <t>賃料：5.1万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>築37年</t>
+          <t>築13年</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：13.72m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -931,21 +931,21 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>100310969272</v>
+        <v>100314087225</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>賃料：5万円管理・共益費：2000円礼金/敷金：2.5万円/-</t>
+          <t>賃料：5.2万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -955,12 +955,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>築37年</t>
+          <t>築10年</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：12.04m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -969,36 +969,36 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>100312748102</v>
+        <v>100314069086</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>―徒歩14分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町１</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>賃料：5.2万円管理・共益費：2000円礼金/敷金：-/5.2万円</t>
+          <t>賃料：5.2万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>築29年</t>
+          <t>築10年</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>専有面積：16.86m2間取り：ワンルーム</t>
+          <t>専有面積：12.61m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1007,36 +1007,36 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>100312825922</v>
+        <v>100313955012</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>―徒歩6分</t>
+          <t>―徒歩11分</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>賃料：5.3万円管理・共益費：6000円礼金/敷金：-/-</t>
+          <t>賃料：5.2万円管理・共益費：8000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>専有面積：16.35m2間取り：1K</t>
+          <t>専有面積：16.43m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1045,36 +1045,36 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>100312772481</v>
+        <v>100313939309</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>賃料：5.3万円管理・共益費：10500円礼金/敷金：5.3万円/-</t>
+          <t>賃料：5.2万円管理・共益費：8000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>専有面積：16.68m2間取り：ワンルーム</t>
+          <t>専有面積：16.17m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1083,36 +1083,36 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>100312814799</v>
+        <v>100313922701</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越１</t>
+          <t>神奈川県川崎市幸区矢上</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>賃料：5.35万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.2万円管理・共益費：-礼金/敷金：-/5.2万円</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>専有面積：11.1m2間取り：1K</t>
+          <t>専有面積：16.24m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1121,36 +1121,36 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>100312815891</v>
+        <v>100309644343</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩11分</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越１</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>賃料：5.4万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.2万円管理・共益費：8000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>専有面積：11.1m2間取り：1K</t>
+          <t>専有面積：16.43m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1159,36 +1159,36 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>100312821439</v>
+        <v>100314055282</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：5.5万円(5.5万円)/5.5万円</t>
+          <t>賃料：5.3万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>東急東横線/元住吉</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>築30年</t>
+          <t>築10年</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>専有面積：17m2間取り：1K</t>
+          <t>専有面積：12.61m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1197,36 +1197,36 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>100312776244</v>
+        <v>100314053882</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩10分</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：-礼金/敷金：5.5万円/5.5万円</t>
+          <t>賃料：5.3万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築10年</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>専有面積：17.57m2間取り：ワンルーム</t>
+          <t>専有面積：12.61m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>100312772455</v>
+        <v>100313938051</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：-礼金/敷金：-/5.5万円</t>
+          <t>賃料：5.3万円管理・共益費：-礼金/敷金：-/5.3万円</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>専有面積：19.4m2間取り：1K</t>
+          <t>専有面積：18.2m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1273,11 +1273,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>100312764908</v>
+        <v>100313926017</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1287,12 +1287,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>賃料：5.5万円管理・共益費：-礼金/敷金：-/5.5万円</t>
+          <t>賃料：5.3万円管理・共益費：-礼金/敷金：-/5.3万円</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>専有面積：16.18m2間取り：1K</t>
+          <t>専有面積：18.2m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1311,21 +1311,21 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>100312783215</v>
+        <v>100313922702</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区北加瀬１</t>
+          <t>神奈川県川崎市幸区矢上</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>賃料：5.7万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.3万円管理・共益費：-礼金/敷金：-/5.3万円</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1335,12 +1335,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>専有面積：12.61m2間取り：ワンルーム</t>
+          <t>専有面積：18.2m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1349,36 +1349,36 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>100312748103</v>
+        <v>100313894643</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町１</t>
+          <t>神奈川県川崎市幸区矢上</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>賃料：5.7万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：5.3万円管理・共益費：-礼金/敷金：-/5.3万円</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>築33年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>専有面積：14.58m2間取り：ワンルーム</t>
+          <t>専有面積：18.2m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>100312697764</v>
+        <v>100313892276</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手本町１</t>
+          <t>神奈川県川崎市幸区矢上</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>賃料：5.8万円管理・共益費：2000円礼金/敷金：-/5.8万円</t>
+          <t>賃料：5.3万円管理・共益費：-礼金/敷金：-/5.3万円</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>専有面積：17.01m2間取り：1K</t>
+          <t>専有面積：18.2m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1425,36 +1425,36 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>100312697728</v>
+        <v>100314076966</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩22分</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手本町１</t>
+          <t>神奈川県川崎市幸区小向仲野町</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>賃料：5.8万円管理・共益費：2000円礼金/敷金：-/5.8万円</t>
+          <t>賃料：5.4万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>東急多摩川線/矢口渡</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築30年</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>専有面積：17.01m2間取り：1K</t>
+          <t>専有面積：21.09m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1463,21 +1463,21 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>100312796558</v>
+        <v>100313984005</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩19分</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町１</t>
+          <t>神奈川県川崎市幸区紺屋町</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>賃料：5.9万円管理・共益費：3000円礼金/敷金：-/5.9万円</t>
+          <t>賃料：5.4万円管理・共益費：-礼金/敷金：5.4万円/5.4万円</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1487,12 +1487,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>築33年</t>
+          <t>築30年</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>専有面積：19.2m2間取り：1K</t>
+          <t>専有面積：18.32m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1501,36 +1501,36 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>100312697733</v>
+        <v>100313875533</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩19分</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区小向西町３</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>賃料：5.9万円管理・共益費：-礼金/敷金：5.9万円/5.9万円</t>
+          <t>賃料：5.4万円管理・共益費：3000円礼金/敷金：2.7万円/2.7万円</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>築34年</t>
+          <t>築22年</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>専有面積：21m2間取り：ワンルーム</t>
+          <t>専有面積：19m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1539,36 +1539,36 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>100310248546</v>
+        <v>100314085879</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町２</t>
+          <t>神奈川県川崎市幸区北加瀬３</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>賃料：5.9万円管理・共益費：6000円礼金/敷金：-/5.9万円</t>
+          <t>賃料：5.5万円管理・共益費：3000円礼金/敷金：5.5万円/5.5万円</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>東急東横線/元住吉</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>築35年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>専有面積：21.15m2間取り：1K</t>
+          <t>専有面積：16.25m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1577,36 +1577,36 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>100312778846</v>
+        <v>100314075439</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>バス19分停歩5分</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越１</t>
+          <t>神奈川県川崎市幸区小向仲野町</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：5500円礼金/敷金：5.5万円/-</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築18年</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>専有面積：11.11m2間取り：ワンルーム</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1615,31 +1615,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>100312740972</v>
+        <v>100314068007</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>バス19分停歩5分</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古市場１</t>
+          <t>神奈川県川崎市幸区小向仲野町</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：5000円礼金/敷金：6万円/-</t>
+          <t>賃料：5.5万円管理・共益費：5500円礼金/敷金：5.5万円/-</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築18年</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1653,21 +1653,21 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>100217609521</v>
+        <v>100314037320</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>バス7分停歩3分</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町２</t>
+          <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>賃料：6万円管理・共益費：5000円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1677,12 +1677,12 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築18年</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>専有面積：15.79m2間取り：ワンルーム</t>
+          <t>専有面積：20.28m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1691,36 +1691,36 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>100288491323</v>
+        <v>100313909427</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>バス9分停歩3分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>賃料：6.1万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>東急東横線/日吉</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>築28年</t>
+          <t>築7年</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>専有面積：20.12m2間取り：1K</t>
+          <t>専有面積：11.91m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1729,36 +1729,36 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>100312820368</v>
+        <v>100313863911</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町１</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：6.2万円/6.2万円</t>
+          <t>賃料：5.5万円管理・共益費：-礼金/敷金：-(5.5万円)/5.5万円</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>築25年</t>
+          <t>築17年</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>専有面積：18.4m2間取り：1K</t>
+          <t>専有面積：14.39m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1767,36 +1767,36 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>100312818178</v>
+        <v>100313744745</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>―徒歩12分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町１</t>
+          <t>神奈川県川崎市幸区矢上</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：6.2万円/6.2万円</t>
+          <t>賃料：5.5万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>築25年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>専有面積：18.4m2間取り：1K</t>
+          <t>専有面積：11.49m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1805,36 +1805,36 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>100312725249</v>
+        <v>100303033808</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>―徒歩4分</t>
+          <t>バス19分停歩5分</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区小向仲野町</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：5500円礼金/敷金：5.5万円/-</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>築20年</t>
+          <t>築18年</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>専有面積：18.55m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1843,36 +1843,36 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>100312725215</v>
+        <v>100276924618</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>バス7分停歩3分</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区小向町</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.5万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築18年</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>専有面積：15.49m2間取り：ワンルーム</t>
+          <t>専有面積：20.28m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1881,36 +1881,36 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>100290902267</v>
+        <v>100314001425</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>―徒歩16分</t>
+          <t>―徒歩8分</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区幸町２</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>賃料：6.2万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：5.6万円管理・共益費：2000円礼金/敷金：5.6万円/5.6万円</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>京急本線/京急川崎</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>築22年</t>
+          <t>築32年</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：17.5m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1919,21 +1919,21 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>100312725190</v>
+        <v>100313984052</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩8分</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬４</t>
+          <t>神奈川県川崎市幸区北加瀬１</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>賃料：6.3万円管理・共益費：3500円礼金/敷金：-/-</t>
+          <t>賃料：5.6万円管理・共益費：3000円礼金/敷金：5.6万円/5.6万円</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1943,12 +1943,12 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>築9年</t>
+          <t>築33年</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>専有面積：15.49m2間取り：ワンルーム</t>
+          <t>専有面積：18.6m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -1957,36 +1957,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>100312817368</v>
+        <v>100268287047</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩7分</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区北加瀬１</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：5.6万円管理・共益費：6000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築30年</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：20.88m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -1995,36 +1995,36 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>100312817343</v>
+        <v>100312015728</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南加瀬２</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：5.65万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築6年</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：13m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -2033,36 +2033,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>100312817337</v>
+        <v>100314049640</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩23分</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南加瀬３</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：5.7万円管理・共益費：2000円礼金/敷金：5.7万円(5.7万円)/5.7万円</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築30年</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：22m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2071,36 +2071,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>100312817304</v>
+        <v>100280889107</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩8分</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区北加瀬１</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：5.7万円管理・共益費：3000円礼金/敷金：5.7万円/5.7万円</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築33年</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：18.36m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2109,36 +2109,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>100312772762</v>
+        <v>100231348097</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>バス19分停歩5分</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区小向仲野町</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：5.7万円管理・共益費：5500円礼金/敷金：5.7万円/-</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築18年</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>100312772750</v>
+        <v>100314033388</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2156,27 +2156,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区下平間</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：5.8万円管理・共益費：2000円礼金/敷金：5.8万円/5.8万円</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築38年</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：34.29m2間取り：1DK</t>
         </is>
       </c>
     </row>
@@ -2185,36 +2185,36 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>100312772738</v>
+        <v>100314029263</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南幸町２</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：5.8万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築37年</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：20m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -2223,36 +2223,36 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>100312772719</v>
+        <v>100314001421</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南幸町２</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：5.8万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築38年</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：17.8m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2261,36 +2261,36 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>100312769593</v>
+        <v>100313983946</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南幸町２</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：5.8万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築37年</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：20m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -2299,36 +2299,36 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>100312769585</v>
+        <v>100313744762</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：5.8万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築9年</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：16.17m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -2337,36 +2337,36 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>100312769575</v>
+        <v>100313744749</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区矢上</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：5.8万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>東急東横線/日吉</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：11.49m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -2375,36 +2375,36 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>100312769559</v>
+        <v>100308073005</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：5.8万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築9年</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：15.49m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -2413,36 +2413,36 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>100312767843</v>
+        <v>100306249233</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -2451,36 +2451,36 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>100312767819</v>
+        <v>100306247339</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：5.9万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -2489,36 +2489,36 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>100312767815</v>
+        <v>100314089966</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -2527,36 +2527,36 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>100312767801</v>
+        <v>100314068094</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>バス18分停歩4分</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南加瀬５</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：5500円礼金/敷金：6万円/-</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/尻手</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築12年</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：19.32m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2565,36 +2565,36 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>100312733338</v>
+        <v>100313940342</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：20.8m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2603,36 +2603,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>100312733328</v>
+        <v>100313922175</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩19分</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区小向仲野町</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>東急多摩川線/矢口渡</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築20年</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：24.77m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2641,21 +2641,21 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>100312733316</v>
+        <v>100313920993</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区小倉５</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：2000円礼金/敷金：6万円/6万円</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2665,12 +2665,12 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築14年</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：24.11m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2679,36 +2679,36 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>100312733303</v>
+        <v>100313898779</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：20.8m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2717,36 +2717,36 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>100312725204</v>
+        <v>100313898733</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：20.8m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2755,36 +2755,36 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>100312725188</v>
+        <v>100313894725</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：-礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築31年</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：20.8m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2793,36 +2793,36 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>100312725076</v>
+        <v>100313875560</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町２</t>
+          <t>神奈川県川崎市幸区北加瀬２</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：6000円礼金/敷金：-/-</t>
+          <t>賃料：6万円管理・共益費：3000円礼金/敷金：6万円/6万円</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>築17年</t>
+          <t>築9年</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>専有面積：19.68m2間取り：1K</t>
+          <t>専有面積：15.3m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2831,21 +2831,21 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>100312724946</v>
+        <v>100313883501</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩11分</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区神明町１</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6.1万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2855,12 +2855,12 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>新築</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -2869,36 +2869,36 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>100312724941</v>
+        <v>100313980020</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩8分</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区下平間</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>賃料：6.5万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6.2万円管理・共益費：8000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築20年</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>専有面積：19.5m2間取り：1K</t>
+          <t>専有面積：23m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -2907,36 +2907,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>100312780755</v>
+        <v>100313974960</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩14分</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区下平間</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>賃料：6.7万円管理・共益費：4000円礼金/敷金：-/3.35万円</t>
+          <t>賃料：6.2万円管理・共益費：-礼金/敷金：-(6.2万円)/6.2万円</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築34年</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>専有面積：19.44m2間取り：ワンルーム</t>
+          <t>専有面積：30.53m2間取り：2K</t>
         </is>
       </c>
     </row>
@@ -2945,36 +2945,36 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>100312724940</v>
+        <v>100305231482</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町２</t>
+          <t>神奈川県川崎市幸区紺屋町</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>賃料：6.7万円管理・共益費：6000円礼金/敷金：-/-</t>
+          <t>賃料：6.2万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>築17年</t>
+          <t>築9年</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>専有面積：19.68m2間取り：1K</t>
+          <t>専有面積：14m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -2983,36 +2983,36 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>100312724913</v>
+        <v>100314087223</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区鹿島田２</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>賃料：6.7万円管理・共益費：4000円礼金/敷金：6.7万円/3.35万円</t>
+          <t>賃料：6.3万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築12年</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>専有面積：19.44m2間取り：1K</t>
+          <t>専有面積：15.04m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -3021,11 +3021,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>100308371637</v>
+        <v>100314081580</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>―徒歩20分</t>
+          <t>―徒歩28分</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3035,22 +3035,22 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>賃料：6.7万円管理・共益費：3000円礼金/敷金：6.7万円/6.7万円</t>
+          <t>賃料：6.3万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/川崎</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>築41年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>専有面積：28.35m2間取り：2K</t>
+          <t>専有面積：18.81m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3059,31 +3059,31 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>100288899576</v>
+        <v>100314075597</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>バス13分停歩3分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手１</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>賃料：6.7万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：6.3万円管理・共益費：5500円礼金/敷金：6.3万円/-</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築14年</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3097,36 +3097,36 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>100275045896</v>
+        <v>100314073638</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>バス13分停歩3分</t>
+          <t>―徒歩5分</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手１</t>
+          <t>神奈川県川崎市幸区鹿島田２</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>賃料：6.7万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：6.3万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/鹿島田</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築12年</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>専有面積：19.87m2間取り：1K</t>
+          <t>専有面積：15.04m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -3135,31 +3135,31 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>100275003603</v>
+        <v>100314068113</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>バス13分停歩3分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区戸手１</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>賃料：6.7万円管理・共益費：5500円礼金/敷金：-/-</t>
+          <t>賃料：6.3万円管理・共益費：5500円礼金/敷金：6.3万円/-</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>築15年</t>
+          <t>築14年</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3173,36 +3173,36 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>100312817309</v>
+        <v>100314068032</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6.3万円管理・共益費：5500円礼金/敷金：6.3万円/-</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築14年</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>専有面積：21.2m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3211,36 +3211,36 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>100312815821</v>
+        <v>100314034286</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>―徒歩11分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：9500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.3万円管理・共益費：5500円礼金/敷金：6.3万円/-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>築10年</t>
+          <t>築14年</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>専有面積：20.6m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3249,36 +3249,36 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>100312772785</v>
+        <v>100314009743</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6.3万円管理・共益費：5500円礼金/敷金：6.3万円/-</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築14年</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>専有面積：21.2m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3287,36 +3287,36 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>100312769570</v>
+        <v>100313996966</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩20分</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6.3万円管理・共益費：5500円礼金/敷金：6.3万円/-</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築14年</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>専有面積：21.2m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3325,36 +3325,36 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>100312767768</v>
+        <v>100313744740</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩15分</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区南加瀬４</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6.3万円管理・共益費：3500円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築9年</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>専有面積：21.2m2間取り：1K</t>
+          <t>専有面積：16.17m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -3363,36 +3363,36 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>100312740997</v>
+        <v>100313975023</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩12分</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区幸町３</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：9500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.35万円管理・共益費：4000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>京急本線/京急川崎</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>築10年</t>
+          <t>築5年</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>専有面積：20.66m2間取り：1K</t>
+          <t>専有面積：17.11m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3401,36 +3401,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>100312733326</v>
+        <v>100314081577</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩28分</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区小向西町２</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6.4万円管理・共益費：3000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ南武線/川崎</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>専有面積：21.2m2間取り：1K</t>
+          <t>専有面積：18.81m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3439,36 +3439,36 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>100312725222</v>
+        <v>100314075424</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：4000円礼金/敷金：6.8万円/3.4万円</t>
+          <t>賃料：6.4万円管理・共益費：5500円礼金/敷金：6.4万円/-</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>築16年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>専有面積：19.44m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3477,21 +3477,21 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>100312724867</v>
+        <v>100314068093</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：-礼金/敷金：-/-</t>
+          <t>賃料：6.4万円管理・共益費：5500円礼金/敷金：6.4万円/-</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3501,12 +3501,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>築32年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>専有面積：21.2m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3515,36 +3515,36 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>100312713790</v>
+        <v>100314068047</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>―徒歩7分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>賃料：6.8万円管理・共益費：9500円礼金/敷金：6.8万円/-</t>
+          <t>賃料：6.4万円管理・共益費：5500円礼金/敷金：6.4万円/-</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/尻手</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>築10年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>専有面積：20.66m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3553,36 +3553,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>100312809517</v>
+        <v>100314034206</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>―徒歩22分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>賃料：6.9万円管理・共益費：5000円礼金/敷金：6.9万円/-</t>
+          <t>賃料：6.4万円管理・共益費：5500円礼金/敷金：6.4万円/-</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>専有面積：22.52m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3591,36 +3591,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>100312809348</v>
+        <v>100314026523</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>―徒歩22分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>賃料：6.9万円管理・共益費：5000円礼金/敷金：6.9万円/-</t>
+          <t>賃料：6.4万円管理・共益費：5500円礼金/敷金：6.4万円/-</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>専有面積：22.52m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3629,36 +3629,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>100312809307</v>
+        <v>100314026522</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>―徒歩22分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>賃料：6.9万円管理・共益費：5000円礼金/敷金：6.9万円/-</t>
+          <t>賃料：6.4万円管理・共益費：5500円礼金/敷金：6.4万円/-</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>専有面積：22.52m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3667,36 +3667,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>100312809089</v>
+        <v>100313930441</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>―徒歩22分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>賃料：6.9万円管理・共益費：5000円礼金/敷金：6.9万円/-</t>
+          <t>賃料：6.4万円管理・共益費：5500円礼金/敷金：6.4万円/-</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>専有面積：22.52m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3705,36 +3705,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>100312808800</v>
+        <v>100313929121</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>―徒歩22分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>賃料：6.9万円管理・共益費：5000円礼金/敷金：6.9万円/-</t>
+          <t>賃料：6.4万円管理・共益費：5500円礼金/敷金：6.4万円/-</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>専有面積：22.52m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3743,36 +3743,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>100312808605</v>
+        <v>100313894652</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>―徒歩22分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南加瀬３</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>賃料：6.9万円管理・共益費：5000円礼金/敷金：6.9万円/-</t>
+          <t>賃料：6.4万円管理・共益費：5500円礼金/敷金：6.4万円/-</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ＪＲ横須賀線/新川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>築6年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>専有面積：22.52m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3781,36 +3781,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>100312725106</v>
+        <v>100313893832</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>―徒歩8分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町２</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>賃料：6.9万円管理・共益費：6000円礼金/敷金：-/-</t>
+          <t>賃料：6.4万円管理・共益費：5500円礼金/敷金：6.4万円/-</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>築17年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>専有面積：19.68m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>100312825984</v>
+        <v>100313890918</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3828,27 +3828,27 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町１</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：15000円礼金/敷金：-/-</t>
+          <t>賃料：6.4万円管理・共益費：5500円礼金/敷金：6.4万円/-</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>築8年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>専有面積：20.85m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3857,36 +3857,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>100312784370</v>
+        <v>100310584982</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町１</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
+          <t>賃料：6.4万円管理・共益費：5500円礼金/敷金：6.4万円/-</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>専有面積：18.29m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3895,36 +3895,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>100312760992</v>
+        <v>100309805957</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>バス13分停歩3分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区小倉４</t>
+          <t>神奈川県川崎市幸区塚越２</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：-礼金/敷金：7万円/7万円</t>
+          <t>賃料：6.4万円管理・共益費：5500円礼金/敷金：6.4万円/-</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ南武線/矢向</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>築47年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>専有面積：40.45m2間取り：2DK</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3933,36 +3933,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>100312746088</v>
+        <v>100249741293</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>―徒歩9分</t>
+          <t>バス13分停歩3分</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町１</t>
+          <t>神奈川県川崎市幸区戸手１</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
+          <t>賃料：6.4万円管理・共益費：5500円礼金/敷金：6.4万円/-</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ＪＲ京浜東北線/川崎</t>
+          <t>ＪＲ東海道本線/川崎</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築15年</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>専有面積：18.29m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -3971,21 +3971,21 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>100312725070</v>
+        <v>100313983939</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>―徒歩18分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区神明町１</t>
+          <t>神奈川県川崎市幸区中幸町２</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：3000円礼金/敷金：7万円/3.5万円</t>
+          <t>賃料：6.5万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3995,12 +3995,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>築18年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>専有面積：23m2間取り：1K</t>
+          <t>専有面積：11.04m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>100312709920</v>
+        <v>100313940343</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -4018,27 +4018,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区中幸町１</t>
+          <t>神奈川県川崎市幸区中幸町２</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>賃料：7万円管理・共益費：5000円礼金/敷金：-/-</t>
+          <t>賃料：6.5万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ＪＲ東海道本線/川崎</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>専有面積：18.29m2間取り：1K</t>
+          <t>専有面積：11.04m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -4047,21 +4047,21 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>100312825996</v>
+        <v>100313894728</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>―徒歩13分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区南幸町３</t>
+          <t>神奈川県川崎市幸区中幸町２</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>賃料：7.05万円管理・共益費：15000円礼金/敷金：7.05万円/-</t>
+          <t>賃料：6.5万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>専有面積：21.3m2間取り：1K</t>
+          <t>専有面積：11.04m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -4085,36 +4085,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>100312811524</v>
+        <v>100313894615</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区中幸町２</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：6.5万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>専有面積：20.13m2間取り：1K</t>
+          <t>専有面積：11.04m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -4123,36 +4123,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>100312791381</v>
+        <v>100314067989</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>―徒歩15分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区古川町</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：4000円礼金/敷金：7.1万円/-</t>
+          <t>賃料：6.6万円管理・共益費：5500円礼金/敷金：6.6万円/-</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/矢向</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>築5年</t>
+          <t>築18年</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>専有面積：22.35m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4161,21 +4161,21 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>100312776713</v>
+        <v>100314026545</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩13分</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区古市場２</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：6.6万円管理・共益費：3000円礼金/敷金：-/6.6万円</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4185,12 +4185,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築18年</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>専有面積：20.13m2間取り：1K</t>
+          <t>専有面積：19.59m2間取り：1K</t>
         </is>
       </c>
     </row>
@@ -4199,36 +4199,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>100312776252</v>
+        <v>100313983977</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩9分</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区中幸町２</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：6.6万円管理・共益費：2000円礼金/敷金：-/-</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ京浜東北線/川崎</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築8年</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>専有面積：20.13m2間取り：1K</t>
+          <t>専有面積：11.04m2間取り：ワンルーム</t>
         </is>
       </c>
     </row>
@@ -4237,36 +4237,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>100312772714</v>
+        <v>100295158013</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>―徒歩10分</t>
+          <t>―徒歩18分</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>神奈川県川崎市幸区塚越２</t>
+          <t>神奈川県川崎市幸区南加瀬１</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>賃料：7.1万円管理・共益費：3000円礼金/敷金：-/-</t>
+          <t>賃料：6.6万円管理・共益費：5500円礼金/敷金：6.6万円/-</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ＪＲ南武線/鹿島田</t>
+          <t>ＪＲ横須賀線/新川崎</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>築3年</t>
+          <t>築18年</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>専有面積：20.13m2間取り：1K</t>
+          <t>専有面積：19.87m2間取り：1K</t>
         </is>
       </c>
     </row>
